--- a/static/results/Finale_Selezione_Territoriale_2025.xlsx
+++ b/static/results/Finale_Selezione_Territoriale_2025.xlsx
@@ -9827,7 +9827,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>16</v>
@@ -9865,7 +9865,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>26</v>
@@ -9903,7 +9903,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>14</v>
@@ -9941,7 +9941,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>40</v>
@@ -9979,7 +9979,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>43</v>
@@ -10017,7 +10017,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>43</v>
@@ -10055,7 +10055,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>43</v>
@@ -10093,7 +10093,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>54</v>
@@ -10131,7 +10131,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -10169,7 +10169,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>43</v>
@@ -10207,7 +10207,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>65</v>
@@ -10245,7 +10245,7 @@
         <v>68</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>43</v>
@@ -10283,7 +10283,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>72</v>
@@ -10321,7 +10321,7 @@
         <v>80</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>81</v>
@@ -10359,7 +10359,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>85</v>
@@ -10397,7 +10397,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>65</v>
@@ -10435,7 +10435,7 @@
         <v>96</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>97</v>
@@ -10473,7 +10473,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>104</v>
@@ -10511,7 +10511,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>108</v>
@@ -10549,7 +10549,7 @@
         <v>115</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>24</v>
@@ -10587,7 +10587,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>121</v>
@@ -10625,7 +10625,7 @@
         <v>124</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>97</v>
@@ -10663,7 +10663,7 @@
         <v>126</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>24</v>
@@ -10701,7 +10701,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>14</v>
@@ -10739,7 +10739,7 @@
         <v>130</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>97</v>
@@ -10777,7 +10777,7 @@
         <v>133</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>14</v>
@@ -10815,7 +10815,7 @@
         <v>136</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>81</v>
@@ -10853,7 +10853,7 @@
         <v>142</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>81</v>
@@ -10891,7 +10891,7 @@
         <v>144</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>108</v>
@@ -10929,7 +10929,7 @@
         <v>146</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>108</v>
@@ -10967,7 +10967,7 @@
         <v>149</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>150</v>
@@ -11005,7 +11005,7 @@
         <v>157</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>104</v>
@@ -11043,7 +11043,7 @@
         <v>160</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>161</v>
@@ -11081,7 +11081,7 @@
         <v>168</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>161</v>
@@ -11119,7 +11119,7 @@
         <v>171</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>43</v>
@@ -11157,7 +11157,7 @@
         <v>176</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>43</v>
@@ -11195,7 +11195,7 @@
         <v>178</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>179</v>
@@ -11233,7 +11233,7 @@
         <v>184</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>185</v>
@@ -11271,7 +11271,7 @@
         <v>187</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>188</v>
@@ -11309,7 +11309,7 @@
         <v>193</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>81</v>
@@ -11347,7 +11347,7 @@
         <v>199</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>81</v>
@@ -11385,7 +11385,7 @@
         <v>202</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>203</v>
@@ -11423,7 +11423,7 @@
         <v>210</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>43</v>
@@ -11461,7 +11461,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>43</v>
@@ -11499,7 +11499,7 @@
         <v>217</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>81</v>
@@ -11537,7 +11537,7 @@
         <v>222</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>223</v>
@@ -11575,7 +11575,7 @@
         <v>231</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>121</v>
@@ -11613,7 +11613,7 @@
         <v>234</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>235</v>
@@ -11651,7 +11651,7 @@
         <v>240</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>241</v>
@@ -11689,7 +11689,7 @@
         <v>247</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>241</v>
@@ -11727,7 +11727,7 @@
         <v>249</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>241</v>
@@ -11765,7 +11765,7 @@
         <v>252</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>241</v>
@@ -11803,7 +11803,7 @@
         <v>255</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>241</v>
@@ -11841,7 +11841,7 @@
         <v>258</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>241</v>
@@ -11879,7 +11879,7 @@
         <v>261</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>241</v>
@@ -11917,7 +11917,7 @@
         <v>264</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>54</v>
@@ -11955,7 +11955,7 @@
         <v>42</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>97</v>
@@ -11993,7 +11993,7 @@
         <v>271</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>272</v>
@@ -12031,7 +12031,7 @@
         <v>274</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>121</v>
@@ -12069,7 +12069,7 @@
         <v>281</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>121</v>
@@ -12107,7 +12107,7 @@
         <v>284</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>285</v>
@@ -12145,7 +12145,7 @@
         <v>292</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>285</v>
@@ -12183,7 +12183,7 @@
         <v>294</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>295</v>
@@ -12221,7 +12221,7 @@
         <v>298</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>299</v>
@@ -12259,7 +12259,7 @@
         <v>302</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>295</v>
@@ -12297,7 +12297,7 @@
         <v>304</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>121</v>
@@ -12335,7 +12335,7 @@
         <v>309</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>310</v>
@@ -12373,7 +12373,7 @@
         <v>315</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>316</v>
@@ -12411,7 +12411,7 @@
         <v>319</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>97</v>
@@ -12449,7 +12449,7 @@
         <v>324</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>325</v>
@@ -12487,7 +12487,7 @@
         <v>328</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>97</v>
@@ -12525,7 +12525,7 @@
         <v>330</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>299</v>
@@ -12563,7 +12563,7 @@
         <v>333</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>334</v>
@@ -12601,7 +12601,7 @@
         <v>336</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>295</v>
@@ -12639,7 +12639,7 @@
         <v>339</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>340</v>
@@ -12677,7 +12677,7 @@
         <v>345</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>54</v>
@@ -12715,7 +12715,7 @@
         <v>348</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>43</v>
@@ -12753,7 +12753,7 @@
         <v>351</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>54</v>
@@ -12791,7 +12791,7 @@
         <v>356</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>357</v>
@@ -12829,7 +12829,7 @@
         <v>363</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>108</v>
@@ -12867,7 +12867,7 @@
         <v>369</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>370</v>
@@ -12905,7 +12905,7 @@
         <v>375</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>370</v>
@@ -12943,7 +12943,7 @@
         <v>378</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>81</v>
@@ -12981,7 +12981,7 @@
         <v>381</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>382</v>
@@ -13019,7 +13019,7 @@
         <v>387</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>357</v>
@@ -13057,7 +13057,7 @@
         <v>393</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>357</v>
@@ -13095,7 +13095,7 @@
         <v>396</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>397</v>
@@ -13133,7 +13133,7 @@
         <v>399</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>400</v>
@@ -13171,7 +13171,7 @@
         <v>402</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>397</v>
@@ -13209,7 +13209,7 @@
         <v>405</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>406</v>
@@ -13247,7 +13247,7 @@
         <v>409</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>410</v>
@@ -13285,7 +13285,7 @@
         <v>413</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>104</v>
@@ -13323,7 +13323,7 @@
         <v>420</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>104</v>
@@ -13361,7 +13361,7 @@
         <v>423</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>121</v>
@@ -13399,7 +13399,7 @@
         <v>427</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>428</v>
@@ -13437,7 +13437,7 @@
         <v>430</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>370</v>
@@ -13475,7 +13475,7 @@
         <v>436</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>14</v>
@@ -13513,7 +13513,7 @@
         <v>438</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>81</v>
@@ -13551,7 +13551,7 @@
         <v>442</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>104</v>
@@ -13589,7 +13589,7 @@
         <v>448</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>40</v>
@@ -13627,7 +13627,7 @@
         <v>451</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>452</v>
@@ -13665,7 +13665,7 @@
         <v>25</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>452</v>
@@ -13703,7 +13703,7 @@
         <v>457</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>458</v>
@@ -13741,7 +13741,7 @@
         <v>133</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>357</v>
@@ -13779,7 +13779,7 @@
         <v>457</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>14</v>
@@ -13817,7 +13817,7 @@
         <v>469</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>357</v>
@@ -13855,7 +13855,7 @@
         <v>474</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>43</v>
@@ -13893,7 +13893,7 @@
         <v>480</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>104</v>
@@ -13931,7 +13931,7 @@
         <v>484</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>485</v>
@@ -13969,7 +13969,7 @@
         <v>488</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>485</v>
@@ -14007,7 +14007,7 @@
         <v>136</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>485</v>
@@ -14045,7 +14045,7 @@
         <v>491</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>121</v>
@@ -14083,7 +14083,7 @@
         <v>496</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>161</v>
@@ -14121,7 +14121,7 @@
         <v>502</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>503</v>
@@ -14159,7 +14159,7 @@
         <v>509</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>510</v>
@@ -14197,7 +14197,7 @@
         <v>512</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>513</v>
@@ -14235,7 +14235,7 @@
         <v>518</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>513</v>
@@ -14273,7 +14273,7 @@
         <v>521</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>522</v>
@@ -14311,7 +14311,7 @@
         <v>527</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>81</v>
@@ -14349,7 +14349,7 @@
         <v>534</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>108</v>
@@ -14387,7 +14387,7 @@
         <v>537</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>81</v>
@@ -14425,7 +14425,7 @@
         <v>539</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>108</v>
@@ -14463,7 +14463,7 @@
         <v>336</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>81</v>
@@ -14501,7 +14501,7 @@
         <v>543</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>81</v>
@@ -14539,7 +14539,7 @@
         <v>545</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>81</v>
@@ -14577,7 +14577,7 @@
         <v>548</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>549</v>
@@ -14615,7 +14615,7 @@
         <v>551</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>81</v>
@@ -14653,7 +14653,7 @@
         <v>553</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>14</v>
@@ -14691,7 +14691,7 @@
         <v>234</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>549</v>
@@ -14729,7 +14729,7 @@
         <v>142</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>81</v>
@@ -14767,7 +14767,7 @@
         <v>558</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>549</v>
@@ -14805,7 +14805,7 @@
         <v>561</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>81</v>
@@ -14843,7 +14843,7 @@
         <v>563</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>97</v>
@@ -14881,7 +14881,7 @@
         <v>565</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>325</v>
@@ -14919,7 +14919,7 @@
         <v>568</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>97</v>
@@ -14957,7 +14957,7 @@
         <v>570</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>81</v>
@@ -14995,7 +14995,7 @@
         <v>572</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>81</v>
@@ -15033,7 +15033,7 @@
         <v>575</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>14</v>
@@ -15071,7 +15071,7 @@
         <v>577</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>578</v>
@@ -15109,7 +15109,7 @@
         <v>581</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>81</v>
@@ -15147,7 +15147,7 @@
         <v>502</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>583</v>
@@ -15185,7 +15185,7 @@
         <v>585</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>586</v>
@@ -15223,7 +15223,7 @@
         <v>91</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>588</v>
@@ -15261,7 +15261,7 @@
         <v>590</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>591</v>
@@ -15299,7 +15299,7 @@
         <v>130</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>595</v>
@@ -15337,7 +15337,7 @@
         <v>598</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>121</v>
@@ -15375,7 +15375,7 @@
         <v>604</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>605</v>
@@ -15413,7 +15413,7 @@
         <v>315</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>104</v>
@@ -15451,7 +15451,7 @@
         <v>608</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F150" s="0" t="s">
         <v>97</v>
@@ -15489,7 +15489,7 @@
         <v>142</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F151" s="0" t="s">
         <v>97</v>
@@ -15527,7 +15527,7 @@
         <v>616</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>14</v>
@@ -15565,7 +15565,7 @@
         <v>618</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>43</v>
@@ -15603,7 +15603,7 @@
         <v>621</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>43</v>
@@ -15641,7 +15641,7 @@
         <v>623</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>43</v>
@@ -15679,7 +15679,7 @@
         <v>626</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>43</v>
@@ -15717,7 +15717,7 @@
         <v>628</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>43</v>
@@ -15755,7 +15755,7 @@
         <v>630</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>43</v>
@@ -15793,7 +15793,7 @@
         <v>632</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>72</v>
@@ -15831,7 +15831,7 @@
         <v>638</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>370</v>
@@ -15869,7 +15869,7 @@
         <v>641</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>370</v>
@@ -15907,7 +15907,7 @@
         <v>644</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>645</v>
@@ -15945,7 +15945,7 @@
         <v>647</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>161</v>
@@ -15983,7 +15983,7 @@
         <v>652</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>653</v>
@@ -16021,7 +16021,7 @@
         <v>655</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>14</v>
@@ -16059,7 +16059,7 @@
         <v>363</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>121</v>
@@ -16097,7 +16097,7 @@
         <v>661</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>97</v>
@@ -16135,7 +16135,7 @@
         <v>666</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>370</v>
@@ -16173,7 +16173,7 @@
         <v>668</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>669</v>
@@ -16211,7 +16211,7 @@
         <v>676</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>677</v>
@@ -16249,7 +16249,7 @@
         <v>680</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>203</v>
@@ -16287,7 +16287,7 @@
         <v>684</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>685</v>
@@ -16325,7 +16325,7 @@
         <v>688</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F173" s="0" t="s">
         <v>150</v>
@@ -16363,7 +16363,7 @@
         <v>691</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>692</v>
@@ -16401,7 +16401,7 @@
         <v>694</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>121</v>
@@ -16439,7 +16439,7 @@
         <v>31</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F176" s="0" t="s">
         <v>161</v>
@@ -16477,7 +16477,7 @@
         <v>623</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>150</v>
@@ -16515,7 +16515,7 @@
         <v>575</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>121</v>
@@ -16553,7 +16553,7 @@
         <v>130</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>700</v>
@@ -16591,7 +16591,7 @@
         <v>706</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>700</v>
@@ -16629,7 +16629,7 @@
         <v>708</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F181" s="0" t="s">
         <v>161</v>
@@ -16667,7 +16667,7 @@
         <v>711</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>712</v>
@@ -16705,7 +16705,7 @@
         <v>717</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F183" s="0" t="s">
         <v>161</v>
@@ -16743,7 +16743,7 @@
         <v>721</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>722</v>
@@ -16781,7 +16781,7 @@
         <v>729</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F185" s="0" t="s">
         <v>357</v>
@@ -16819,7 +16819,7 @@
         <v>734</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F186" s="0" t="s">
         <v>397</v>
@@ -16857,7 +16857,7 @@
         <v>737</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>738</v>
@@ -16895,7 +16895,7 @@
         <v>742</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F188" s="0" t="s">
         <v>692</v>
@@ -16933,7 +16933,7 @@
         <v>749</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>692</v>
@@ -16971,7 +16971,7 @@
         <v>752</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>753</v>
@@ -17009,7 +17009,7 @@
         <v>755</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F191" s="0" t="s">
         <v>756</v>
@@ -17047,7 +17047,7 @@
         <v>759</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F192" s="0" t="s">
         <v>108</v>
@@ -17085,7 +17085,7 @@
         <v>763</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>325</v>
@@ -17123,7 +17123,7 @@
         <v>217</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>108</v>
@@ -17161,7 +17161,7 @@
         <v>766</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>40</v>
@@ -17199,7 +17199,7 @@
         <v>769</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>108</v>
@@ -17237,7 +17237,7 @@
         <v>771</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F197" s="0" t="s">
         <v>325</v>
@@ -17275,7 +17275,7 @@
         <v>773</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F198" s="0" t="s">
         <v>24</v>
@@ -17313,7 +17313,7 @@
         <v>778</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F199" s="0" t="s">
         <v>24</v>
@@ -17351,7 +17351,7 @@
         <v>271</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F200" s="0" t="s">
         <v>104</v>
@@ -17389,7 +17389,7 @@
         <v>781</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F201" s="0" t="s">
         <v>24</v>
@@ -17427,7 +17427,7 @@
         <v>628</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F202" s="0" t="s">
         <v>108</v>
@@ -17465,7 +17465,7 @@
         <v>785</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>104</v>
@@ -17503,7 +17503,7 @@
         <v>788</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F204" s="0" t="s">
         <v>40</v>
@@ -17541,7 +17541,7 @@
         <v>790</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>24</v>
@@ -17579,7 +17579,7 @@
         <v>792</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>793</v>
@@ -17617,7 +17617,7 @@
         <v>798</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>793</v>
@@ -17655,7 +17655,7 @@
         <v>800</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F208" s="0" t="s">
         <v>801</v>
@@ -17693,7 +17693,7 @@
         <v>803</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>72</v>
@@ -17731,7 +17731,7 @@
         <v>808</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>72</v>
@@ -17769,7 +17769,7 @@
         <v>810</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>72</v>
@@ -17807,7 +17807,7 @@
         <v>810</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>72</v>
@@ -17845,7 +17845,7 @@
         <v>812</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>72</v>
@@ -17883,7 +17883,7 @@
         <v>814</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>72</v>
@@ -17921,7 +17921,7 @@
         <v>255</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>820</v>
@@ -17959,7 +17959,7 @@
         <v>826</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>827</v>
@@ -17997,7 +17997,7 @@
         <v>833</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>834</v>
@@ -18035,7 +18035,7 @@
         <v>840</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F218" s="0" t="s">
         <v>834</v>
@@ -18073,7 +18073,7 @@
         <v>842</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>843</v>
@@ -18111,7 +18111,7 @@
         <v>711</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>834</v>
@@ -18149,7 +18149,7 @@
         <v>847</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>848</v>
@@ -18187,7 +18187,7 @@
         <v>850</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>851</v>
@@ -18225,7 +18225,7 @@
         <v>853</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F223" s="0" t="s">
         <v>854</v>
@@ -18263,7 +18263,7 @@
         <v>857</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>843</v>
@@ -18301,7 +18301,7 @@
         <v>860</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>861</v>
@@ -18339,7 +18339,7 @@
         <v>345</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>864</v>
@@ -18377,7 +18377,7 @@
         <v>867</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>864</v>
@@ -18415,7 +18415,7 @@
         <v>870</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>871</v>
@@ -18453,7 +18453,7 @@
         <v>873</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>861</v>
@@ -18491,7 +18491,7 @@
         <v>734</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F230" s="0" t="s">
         <v>876</v>
@@ -18529,7 +18529,7 @@
         <v>882</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F231" s="0" t="s">
         <v>883</v>
@@ -18567,7 +18567,7 @@
         <v>885</v>
       </c>
       <c r="E232" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>886</v>
@@ -18605,7 +18605,7 @@
         <v>891</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>892</v>
@@ -18643,7 +18643,7 @@
         <v>399</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F234" s="0" t="s">
         <v>507</v>
@@ -18681,7 +18681,7 @@
         <v>896</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>81</v>
@@ -18719,7 +18719,7 @@
         <v>901</v>
       </c>
       <c r="E236" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>325</v>
@@ -18757,7 +18757,7 @@
         <v>202</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>81</v>
@@ -18795,7 +18795,7 @@
         <v>621</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F238" s="0" t="s">
         <v>81</v>
@@ -18833,7 +18833,7 @@
         <v>907</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F239" s="0" t="s">
         <v>161</v>
@@ -18871,7 +18871,7 @@
         <v>911</v>
       </c>
       <c r="E240" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>549</v>
@@ -18909,7 +18909,7 @@
         <v>919</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>549</v>
@@ -18947,7 +18947,7 @@
         <v>921</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>370</v>
@@ -18985,7 +18985,7 @@
         <v>923</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F243" s="0" t="s">
         <v>370</v>
@@ -19023,7 +19023,7 @@
         <v>926</v>
       </c>
       <c r="E244" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F244" s="0" t="s">
         <v>108</v>
@@ -19061,7 +19061,7 @@
         <v>928</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>929</v>
@@ -19099,7 +19099,7 @@
         <v>933</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>934</v>
@@ -19137,7 +19137,7 @@
         <v>938</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>97</v>
@@ -19175,7 +19175,7 @@
         <v>940</v>
       </c>
       <c r="E248" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>24</v>
@@ -19213,7 +19213,7 @@
         <v>946</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>81</v>
@@ -19251,7 +19251,7 @@
         <v>860</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F250" s="0" t="s">
         <v>97</v>
@@ -19289,7 +19289,7 @@
         <v>430</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>957</v>
@@ -19327,7 +19327,7 @@
         <v>959</v>
       </c>
       <c r="E252" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>397</v>
@@ -19365,7 +19365,7 @@
         <v>963</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>397</v>
@@ -19403,7 +19403,7 @@
         <v>965</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>966</v>
@@ -19441,7 +19441,7 @@
         <v>968</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F255" s="0" t="s">
         <v>969</v>
@@ -19479,7 +19479,7 @@
         <v>451</v>
       </c>
       <c r="E256" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F256" s="0" t="s">
         <v>16</v>
@@ -19517,7 +19517,7 @@
         <v>975</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>16</v>
@@ -19555,7 +19555,7 @@
         <v>168</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F258" s="0" t="s">
         <v>81</v>
@@ -19593,7 +19593,7 @@
         <v>979</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F259" s="0" t="s">
         <v>14</v>
@@ -19631,7 +19631,7 @@
         <v>621</v>
       </c>
       <c r="E260" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>983</v>
@@ -19669,7 +19669,7 @@
         <v>563</v>
       </c>
       <c r="E261" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>161</v>
@@ -19707,7 +19707,7 @@
         <v>202</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>988</v>
@@ -19745,7 +19745,7 @@
         <v>993</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>65</v>
@@ -19783,7 +19783,7 @@
         <v>998</v>
       </c>
       <c r="E264" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>999</v>
@@ -19821,7 +19821,7 @@
         <v>608</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>104</v>
@@ -19859,7 +19859,7 @@
         <v>1009</v>
       </c>
       <c r="E266" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F266" s="0" t="s">
         <v>14</v>
@@ -19897,7 +19897,7 @@
         <v>521</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F267" s="0" t="s">
         <v>14</v>
@@ -19935,7 +19935,7 @@
         <v>1014</v>
       </c>
       <c r="E268" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F268" s="0" t="s">
         <v>97</v>
@@ -19973,7 +19973,7 @@
         <v>1018</v>
       </c>
       <c r="E269" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>97</v>
@@ -20011,7 +20011,7 @@
         <v>1020</v>
       </c>
       <c r="E270" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>1021</v>
@@ -20049,7 +20049,7 @@
         <v>1023</v>
       </c>
       <c r="E271" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F271" s="0" t="s">
         <v>40</v>
@@ -20087,7 +20087,7 @@
         <v>826</v>
       </c>
       <c r="E272" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F272" s="0" t="s">
         <v>40</v>
@@ -20125,7 +20125,7 @@
         <v>1029</v>
       </c>
       <c r="E273" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F273" s="0" t="s">
         <v>370</v>
@@ -20163,7 +20163,7 @@
         <v>91</v>
       </c>
       <c r="E274" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F274" s="0" t="s">
         <v>370</v>
@@ -20201,7 +20201,7 @@
         <v>590</v>
       </c>
       <c r="E275" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F275" s="0" t="s">
         <v>97</v>
@@ -20239,7 +20239,7 @@
         <v>451</v>
       </c>
       <c r="E276" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F276" s="0" t="s">
         <v>97</v>
@@ -20277,7 +20277,7 @@
         <v>1041</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F277" s="0" t="s">
         <v>14</v>
@@ -20315,7 +20315,7 @@
         <v>1043</v>
       </c>
       <c r="E278" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F278" s="0" t="s">
         <v>43</v>
@@ -20353,7 +20353,7 @@
         <v>1048</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F279" s="0" t="s">
         <v>1049</v>
@@ -20391,7 +20391,7 @@
         <v>71</v>
       </c>
       <c r="E280" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F280" s="0" t="s">
         <v>1054</v>
@@ -20429,7 +20429,7 @@
         <v>1057</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F281" s="0" t="s">
         <v>1058</v>
@@ -20467,7 +20467,7 @@
         <v>1061</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F282" s="0" t="s">
         <v>1062</v>
@@ -20505,7 +20505,7 @@
         <v>1064</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F283" s="0" t="s">
         <v>14</v>
@@ -20543,7 +20543,7 @@
         <v>1069</v>
       </c>
       <c r="E284" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F284" s="0" t="s">
         <v>121</v>
@@ -20581,7 +20581,7 @@
         <v>1074</v>
       </c>
       <c r="E285" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F285" s="0" t="s">
         <v>1075</v>
@@ -20619,7 +20619,7 @@
         <v>1081</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F286" s="0" t="s">
         <v>583</v>
@@ -20657,7 +20657,7 @@
         <v>1085</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F287" s="0" t="s">
         <v>1086</v>
@@ -20695,7 +20695,7 @@
         <v>284</v>
       </c>
       <c r="E288" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F288" s="0" t="s">
         <v>1088</v>
@@ -20733,7 +20733,7 @@
         <v>621</v>
       </c>
       <c r="E289" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F289" s="0" t="s">
         <v>1094</v>
@@ -20771,7 +20771,7 @@
         <v>1098</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F290" s="0" t="s">
         <v>104</v>
@@ -20809,7 +20809,7 @@
         <v>1102</v>
       </c>
       <c r="E291" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F291" s="0" t="s">
         <v>104</v>
@@ -20847,7 +20847,7 @@
         <v>1105</v>
       </c>
       <c r="E292" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F292" s="0" t="s">
         <v>700</v>
@@ -20885,7 +20885,7 @@
         <v>1110</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F293" s="0" t="s">
         <v>700</v>
@@ -20923,7 +20923,7 @@
         <v>1112</v>
       </c>
       <c r="E294" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F294" s="0" t="s">
         <v>700</v>
@@ -20961,7 +20961,7 @@
         <v>628</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F295" s="0" t="s">
         <v>1114</v>
@@ -20999,7 +20999,7 @@
         <v>124</v>
       </c>
       <c r="E296" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F296" s="0" t="s">
         <v>1117</v>
@@ -21037,7 +21037,7 @@
         <v>842</v>
       </c>
       <c r="E297" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F297" s="0" t="s">
         <v>1120</v>
@@ -21075,7 +21075,7 @@
         <v>1126</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F298" s="0" t="s">
         <v>1127</v>
@@ -21113,7 +21113,7 @@
         <v>558</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F299" s="0" t="s">
         <v>121</v>
@@ -21151,7 +21151,7 @@
         <v>1134</v>
       </c>
       <c r="E300" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F300" s="0" t="s">
         <v>1135</v>
@@ -21189,7 +21189,7 @@
         <v>1138</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F301" s="0" t="s">
         <v>1139</v>
@@ -21227,7 +21227,7 @@
         <v>1143</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F302" s="0" t="s">
         <v>24</v>
@@ -21265,7 +21265,7 @@
         <v>1145</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F303" s="0" t="s">
         <v>104</v>
@@ -21303,7 +21303,7 @@
         <v>1153</v>
       </c>
       <c r="E304" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F304" s="0" t="s">
         <v>700</v>
@@ -21341,7 +21341,7 @@
         <v>1157</v>
       </c>
       <c r="E305" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F305" s="0" t="s">
         <v>549</v>
@@ -21379,7 +21379,7 @@
         <v>1159</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F306" s="0" t="s">
         <v>14</v>
@@ -21417,7 +21417,7 @@
         <v>96</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F307" s="0" t="s">
         <v>1163</v>
@@ -21455,7 +21455,7 @@
         <v>790</v>
       </c>
       <c r="E308" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F308" s="0" t="s">
         <v>1163</v>
@@ -21493,7 +21493,7 @@
         <v>1167</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F309" s="0" t="s">
         <v>827</v>
@@ -21531,7 +21531,7 @@
         <v>1171</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F310" s="0" t="s">
         <v>827</v>
@@ -21569,7 +21569,7 @@
         <v>1173</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F311" s="0" t="s">
         <v>1174</v>
@@ -21607,7 +21607,7 @@
         <v>1177</v>
       </c>
       <c r="E312" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F312" s="0" t="s">
         <v>1178</v>
@@ -21645,7 +21645,7 @@
         <v>336</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F313" s="0" t="s">
         <v>1178</v>
@@ -21683,7 +21683,7 @@
         <v>644</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F314" s="0" t="s">
         <v>1181</v>
@@ -21721,7 +21721,7 @@
         <v>590</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F315" s="0" t="s">
         <v>1184</v>
@@ -21759,7 +21759,7 @@
         <v>1186</v>
       </c>
       <c r="E316" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F316" s="0" t="s">
         <v>1187</v>
@@ -21797,7 +21797,7 @@
         <v>1189</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F317" s="0" t="s">
         <v>1181</v>
@@ -21835,7 +21835,7 @@
         <v>778</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F318" s="0" t="s">
         <v>827</v>
@@ -21873,7 +21873,7 @@
         <v>1193</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F319" s="0" t="s">
         <v>827</v>
@@ -21911,7 +21911,7 @@
         <v>1195</v>
       </c>
       <c r="E320" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F320" s="0" t="s">
         <v>827</v>
@@ -21949,7 +21949,7 @@
         <v>304</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F321" s="0" t="s">
         <v>325</v>
@@ -21987,7 +21987,7 @@
         <v>1203</v>
       </c>
       <c r="E322" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F322" s="0" t="s">
         <v>325</v>
@@ -22025,7 +22025,7 @@
         <v>42</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F323" s="0" t="s">
         <v>549</v>
@@ -22063,7 +22063,7 @@
         <v>1207</v>
       </c>
       <c r="E324" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F324" s="0" t="s">
         <v>81</v>
@@ -22101,7 +22101,7 @@
         <v>963</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F325" s="0" t="s">
         <v>520</v>
@@ -22139,7 +22139,7 @@
         <v>1211</v>
       </c>
       <c r="E326" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F326" s="0" t="s">
         <v>81</v>
@@ -22177,7 +22177,7 @@
         <v>1213</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F327" s="0" t="s">
         <v>1214</v>
@@ -22215,7 +22215,7 @@
         <v>107</v>
       </c>
       <c r="E328" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F328" s="0" t="s">
         <v>1219</v>
@@ -22253,7 +22253,7 @@
         <v>1222</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F329" s="0" t="s">
         <v>1223</v>
@@ -22291,7 +22291,7 @@
         <v>1225</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F330" s="0" t="s">
         <v>1226</v>
@@ -22329,7 +22329,7 @@
         <v>1023</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F331" s="0" t="s">
         <v>1231</v>
@@ -22367,7 +22367,7 @@
         <v>1233</v>
       </c>
       <c r="E332" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F332" s="0" t="s">
         <v>1234</v>
@@ -22405,7 +22405,7 @@
         <v>548</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F333" s="0" t="s">
         <v>1226</v>
@@ -22443,7 +22443,7 @@
         <v>798</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F334" s="0" t="s">
         <v>1226</v>
@@ -22481,7 +22481,7 @@
         <v>1239</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>1240</v>
@@ -22519,7 +22519,7 @@
         <v>1243</v>
       </c>
       <c r="E336" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F336" s="0" t="s">
         <v>161</v>
@@ -22557,7 +22557,7 @@
         <v>644</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F337" s="0" t="s">
         <v>81</v>
@@ -22595,7 +22595,7 @@
         <v>1249</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F338" s="0" t="s">
         <v>54</v>
@@ -22633,7 +22633,7 @@
         <v>1255</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F339" s="0" t="s">
         <v>340</v>
@@ -22671,7 +22671,7 @@
         <v>1014</v>
       </c>
       <c r="E340" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F340" s="0" t="s">
         <v>43</v>
@@ -22709,7 +22709,7 @@
         <v>1260</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F341" s="0" t="s">
         <v>340</v>
@@ -22747,7 +22747,7 @@
         <v>1262</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F342" s="0" t="s">
         <v>56</v>
@@ -22785,7 +22785,7 @@
         <v>1264</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F343" s="0" t="s">
         <v>43</v>
@@ -22823,7 +22823,7 @@
         <v>1266</v>
       </c>
       <c r="E344" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F344" s="0" t="s">
         <v>340</v>
@@ -22861,7 +22861,7 @@
         <v>1268</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F345" s="0" t="s">
         <v>43</v>
@@ -22899,7 +22899,7 @@
         <v>1270</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F346" s="0" t="s">
         <v>43</v>
@@ -22937,7 +22937,7 @@
         <v>1273</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F347" s="0" t="s">
         <v>161</v>
@@ -22975,7 +22975,7 @@
         <v>427</v>
       </c>
       <c r="E348" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F348" s="0" t="s">
         <v>549</v>
@@ -23013,7 +23013,7 @@
         <v>788</v>
       </c>
       <c r="E349" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F349" s="0" t="s">
         <v>520</v>
@@ -23051,7 +23051,7 @@
         <v>1282</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F350" s="0" t="s">
         <v>1283</v>
@@ -23089,7 +23089,7 @@
         <v>1289</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F351" s="0" t="s">
         <v>1114</v>
@@ -23127,7 +23127,7 @@
         <v>1291</v>
       </c>
       <c r="E352" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F352" s="0" t="s">
         <v>1292</v>
@@ -23165,7 +23165,7 @@
         <v>1297</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F353" s="0" t="s">
         <v>108</v>
@@ -23203,7 +23203,7 @@
         <v>1302</v>
       </c>
       <c r="E354" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>325</v>
@@ -23241,7 +23241,7 @@
         <v>64</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F355" s="0" t="s">
         <v>97</v>
@@ -23279,7 +23279,7 @@
         <v>1310</v>
       </c>
       <c r="E356" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F356" s="0" t="s">
         <v>1311</v>
@@ -23317,7 +23317,7 @@
         <v>1239</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F357" s="0" t="s">
         <v>1316</v>
@@ -23355,7 +23355,7 @@
         <v>1318</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F358" s="0" t="s">
         <v>14</v>
@@ -23393,7 +23393,7 @@
         <v>1323</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F359" s="0" t="s">
         <v>1324</v>
@@ -23431,7 +23431,7 @@
         <v>808</v>
       </c>
       <c r="E360" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F360" s="0" t="s">
         <v>1327</v>
@@ -23469,7 +23469,7 @@
         <v>1329</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F361" s="0" t="s">
         <v>14</v>
@@ -23507,7 +23507,7 @@
         <v>1331</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F362" s="0" t="s">
         <v>104</v>
@@ -23545,7 +23545,7 @@
         <v>438</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F363" s="0" t="s">
         <v>1333</v>
@@ -23583,7 +23583,7 @@
         <v>1336</v>
       </c>
       <c r="E364" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F364" s="0" t="s">
         <v>104</v>
@@ -23621,7 +23621,7 @@
         <v>993</v>
       </c>
       <c r="E365" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F365" s="0" t="s">
         <v>104</v>
@@ -23659,7 +23659,7 @@
         <v>330</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F366" s="0" t="s">
         <v>14</v>
@@ -23697,7 +23697,7 @@
         <v>1340</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F367" s="0" t="s">
         <v>549</v>
@@ -23735,7 +23735,7 @@
         <v>1345</v>
       </c>
       <c r="E368" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F368" s="0" t="s">
         <v>1346</v>
@@ -23773,7 +23773,7 @@
         <v>1351</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F369" s="0" t="s">
         <v>756</v>
@@ -23811,7 +23811,7 @@
         <v>1255</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F370" s="0" t="s">
         <v>1355</v>
@@ -23849,7 +23849,7 @@
         <v>1357</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F371" s="0" t="s">
         <v>756</v>
@@ -23887,7 +23887,7 @@
         <v>25</v>
       </c>
       <c r="E372" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F372" s="0" t="s">
         <v>1359</v>
@@ -23925,7 +23925,7 @@
         <v>1361</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F373" s="0" t="s">
         <v>161</v>
@@ -23963,7 +23963,7 @@
         <v>484</v>
       </c>
       <c r="E374" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F374" s="0" t="s">
         <v>16</v>
@@ -24001,7 +24001,7 @@
         <v>1368</v>
       </c>
       <c r="E375" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F375" s="0" t="s">
         <v>43</v>
@@ -24039,7 +24039,7 @@
         <v>1370</v>
       </c>
       <c r="E376" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F376" s="0" t="s">
         <v>161</v>
@@ -24077,7 +24077,7 @@
         <v>1018</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F377" s="0" t="s">
         <v>104</v>
@@ -24115,7 +24115,7 @@
         <v>1373</v>
       </c>
       <c r="E378" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F378" s="0" t="s">
         <v>161</v>
@@ -24153,7 +24153,7 @@
         <v>1376</v>
       </c>
       <c r="E379" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F379" s="0" t="s">
         <v>121</v>
@@ -24191,7 +24191,7 @@
         <v>1110</v>
       </c>
       <c r="E380" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F380" s="0" t="s">
         <v>1382</v>
@@ -24229,7 +24229,7 @@
         <v>1386</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F381" s="0" t="s">
         <v>1387</v>
@@ -24267,7 +24267,7 @@
         <v>496</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F382" s="0" t="s">
         <v>1387</v>
@@ -24305,7 +24305,7 @@
         <v>1390</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F383" s="0" t="s">
         <v>1184</v>
@@ -24343,7 +24343,7 @@
         <v>405</v>
       </c>
       <c r="E384" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F384" s="0" t="s">
         <v>1392</v>
@@ -24381,7 +24381,7 @@
         <v>1395</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F385" s="0" t="s">
         <v>1387</v>
@@ -24419,7 +24419,7 @@
         <v>1397</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F386" s="0" t="s">
         <v>1398</v>
@@ -24457,7 +24457,7 @@
         <v>1402</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F387" s="0" t="s">
         <v>1403</v>
@@ -24495,7 +24495,7 @@
         <v>1405</v>
       </c>
       <c r="E388" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F388" s="0" t="s">
         <v>1406</v>
@@ -24533,7 +24533,7 @@
         <v>1409</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F389" s="0" t="s">
         <v>756</v>
@@ -24571,7 +24571,7 @@
         <v>623</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F390" s="0" t="s">
         <v>40</v>
@@ -24609,7 +24609,7 @@
         <v>812</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F391" s="0" t="s">
         <v>40</v>
@@ -24647,7 +24647,7 @@
         <v>1074</v>
       </c>
       <c r="E392" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F392" s="0" t="s">
         <v>1418</v>
@@ -24685,7 +24685,7 @@
         <v>1421</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F393" s="0" t="s">
         <v>1422</v>
@@ -24723,7 +24723,7 @@
         <v>1426</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F394" s="0" t="s">
         <v>54</v>
@@ -24761,7 +24761,7 @@
         <v>616</v>
       </c>
       <c r="E395" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F395" s="0" t="s">
         <v>54</v>
@@ -24799,7 +24799,7 @@
         <v>1429</v>
       </c>
       <c r="E396" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F396" s="0" t="s">
         <v>1422</v>
@@ -24837,7 +24837,7 @@
         <v>1431</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F397" s="0" t="s">
         <v>1432</v>
@@ -24875,7 +24875,7 @@
         <v>1434</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F398" s="0" t="s">
         <v>1422</v>
@@ -24913,7 +24913,7 @@
         <v>48</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F399" s="0" t="s">
         <v>54</v>
@@ -24951,7 +24951,7 @@
         <v>1437</v>
       </c>
       <c r="E400" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F400" s="0" t="s">
         <v>370</v>
@@ -24989,7 +24989,7 @@
         <v>96</v>
       </c>
       <c r="E401" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F401" s="0" t="s">
         <v>81</v>
@@ -25027,7 +25027,7 @@
         <v>666</v>
       </c>
       <c r="E402" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F402" s="0" t="s">
         <v>81</v>
@@ -25065,7 +25065,7 @@
         <v>491</v>
       </c>
       <c r="E403" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F403" s="0" t="s">
         <v>14</v>
@@ -25103,7 +25103,7 @@
         <v>867</v>
       </c>
       <c r="E404" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F404" s="0" t="s">
         <v>14</v>
@@ -25141,7 +25141,7 @@
         <v>928</v>
       </c>
       <c r="E405" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F405" s="0" t="s">
         <v>81</v>
@@ -25179,7 +25179,7 @@
         <v>1448</v>
       </c>
       <c r="E406" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F406" s="0" t="s">
         <v>370</v>
@@ -25217,7 +25217,7 @@
         <v>1450</v>
       </c>
       <c r="E407" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F407" s="0" t="s">
         <v>81</v>
@@ -25255,7 +25255,7 @@
         <v>1452</v>
       </c>
       <c r="E408" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F408" s="0" t="s">
         <v>370</v>
@@ -25293,7 +25293,7 @@
         <v>339</v>
       </c>
       <c r="E409" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F409" s="0" t="s">
         <v>370</v>
@@ -25331,7 +25331,7 @@
         <v>1456</v>
       </c>
       <c r="E410" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F410" s="0" t="s">
         <v>1457</v>
@@ -25369,7 +25369,7 @@
         <v>853</v>
       </c>
       <c r="E411" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F411" s="0" t="s">
         <v>605</v>
@@ -25407,7 +25407,7 @@
         <v>680</v>
       </c>
       <c r="E412" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>1184</v>
@@ -25445,7 +25445,7 @@
         <v>1469</v>
       </c>
       <c r="E413" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>827</v>
@@ -25483,7 +25483,7 @@
         <v>1471</v>
       </c>
       <c r="E414" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F414" s="0" t="s">
         <v>397</v>
@@ -25521,7 +25521,7 @@
         <v>1478</v>
       </c>
       <c r="E415" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F415" s="0" t="s">
         <v>1075</v>
@@ -25559,7 +25559,7 @@
         <v>1480</v>
       </c>
       <c r="E416" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>1481</v>
@@ -25597,7 +25597,7 @@
         <v>1482</v>
       </c>
       <c r="E417" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F417" s="0" t="s">
         <v>1163</v>
@@ -25635,7 +25635,7 @@
         <v>1484</v>
       </c>
       <c r="E418" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F418" s="0" t="s">
         <v>1075</v>
@@ -25673,7 +25673,7 @@
         <v>1486</v>
       </c>
       <c r="E419" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F419" s="0" t="s">
         <v>397</v>
@@ -25711,7 +25711,7 @@
         <v>1489</v>
       </c>
       <c r="E420" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F420" s="0" t="s">
         <v>1490</v>
@@ -25749,7 +25749,7 @@
         <v>1493</v>
       </c>
       <c r="E421" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F421" s="0" t="s">
         <v>397</v>
@@ -25787,7 +25787,7 @@
         <v>1498</v>
       </c>
       <c r="E422" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F422" s="0" t="s">
         <v>1499</v>
@@ -25825,7 +25825,7 @@
         <v>1503</v>
       </c>
       <c r="E423" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F423" s="0" t="s">
         <v>1504</v>
@@ -25863,7 +25863,7 @@
         <v>1506</v>
       </c>
       <c r="E424" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>738</v>
@@ -25901,7 +25901,7 @@
         <v>64</v>
       </c>
       <c r="E425" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>1508</v>
@@ -25939,7 +25939,7 @@
         <v>1510</v>
       </c>
       <c r="E426" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>104</v>
@@ -25977,7 +25977,7 @@
         <v>1516</v>
       </c>
       <c r="E427" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>104</v>
@@ -26015,7 +26015,7 @@
         <v>1518</v>
       </c>
       <c r="E428" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>104</v>
@@ -26053,7 +26053,7 @@
         <v>1520</v>
       </c>
       <c r="E429" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>104</v>
@@ -26091,7 +26091,7 @@
         <v>1493</v>
       </c>
       <c r="E430" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>104</v>
@@ -26129,7 +26129,7 @@
         <v>1523</v>
       </c>
       <c r="E431" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F431" s="0" t="s">
         <v>988</v>
@@ -26167,7 +26167,7 @@
         <v>171</v>
       </c>
       <c r="E432" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F432" s="0" t="s">
         <v>370</v>
@@ -26205,7 +26205,7 @@
         <v>993</v>
       </c>
       <c r="E433" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F433" s="0" t="s">
         <v>40</v>
@@ -26243,7 +26243,7 @@
         <v>1537</v>
       </c>
       <c r="E434" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F434" s="0" t="s">
         <v>97</v>
@@ -26281,7 +26281,7 @@
         <v>1539</v>
       </c>
       <c r="E435" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F435" s="0" t="s">
         <v>40</v>
@@ -26319,7 +26319,7 @@
         <v>1542</v>
       </c>
       <c r="E436" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F436" s="0" t="s">
         <v>81</v>
@@ -26357,7 +26357,7 @@
         <v>405</v>
       </c>
       <c r="E437" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F437" s="0" t="s">
         <v>97</v>
@@ -26395,7 +26395,7 @@
         <v>545</v>
       </c>
       <c r="E438" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F438" s="0" t="s">
         <v>370</v>
@@ -26433,7 +26433,7 @@
         <v>1548</v>
       </c>
       <c r="E439" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F439" s="0" t="s">
         <v>81</v>
@@ -26471,7 +26471,7 @@
         <v>628</v>
       </c>
       <c r="E440" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F440" s="0" t="s">
         <v>97</v>
@@ -26509,7 +26509,7 @@
         <v>585</v>
       </c>
       <c r="E441" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F441" s="0" t="s">
         <v>14</v>
@@ -26547,7 +26547,7 @@
         <v>369</v>
       </c>
       <c r="E442" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F442" s="0" t="s">
         <v>121</v>
@@ -26585,7 +26585,7 @@
         <v>261</v>
       </c>
       <c r="E443" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F443" s="0" t="s">
         <v>121</v>
@@ -26623,7 +26623,7 @@
         <v>616</v>
       </c>
       <c r="E444" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F444" s="0" t="s">
         <v>97</v>
@@ -26661,7 +26661,7 @@
         <v>1555</v>
       </c>
       <c r="E445" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F445" s="0" t="s">
         <v>97</v>
@@ -26699,7 +26699,7 @@
         <v>926</v>
       </c>
       <c r="E446" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F446" s="0" t="s">
         <v>988</v>
@@ -26737,7 +26737,7 @@
         <v>423</v>
       </c>
       <c r="E447" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F447" s="0" t="s">
         <v>104</v>
@@ -26775,7 +26775,7 @@
         <v>1564</v>
       </c>
       <c r="E448" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F448" s="0" t="s">
         <v>104</v>
@@ -26813,7 +26813,7 @@
         <v>1567</v>
       </c>
       <c r="E449" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F449" s="0" t="s">
         <v>58</v>
@@ -26851,7 +26851,7 @@
         <v>130</v>
       </c>
       <c r="E450" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F450" s="0" t="s">
         <v>14</v>
@@ -26889,7 +26889,7 @@
         <v>1575</v>
       </c>
       <c r="E451" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F451" s="0" t="s">
         <v>14</v>
@@ -26927,7 +26927,7 @@
         <v>1273</v>
       </c>
       <c r="E452" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F452" s="0" t="s">
         <v>14</v>
@@ -26965,7 +26965,7 @@
         <v>1579</v>
       </c>
       <c r="E453" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F453" s="0" t="s">
         <v>14</v>
@@ -27003,7 +27003,7 @@
         <v>423</v>
       </c>
       <c r="E454" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F454" s="0" t="s">
         <v>81</v>
@@ -27041,7 +27041,7 @@
         <v>57</v>
       </c>
       <c r="E455" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F455" s="0" t="s">
         <v>14</v>
@@ -27079,7 +27079,7 @@
         <v>808</v>
       </c>
       <c r="E456" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F456" s="0" t="s">
         <v>692</v>
@@ -27117,7 +27117,7 @@
         <v>1587</v>
       </c>
       <c r="E457" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F457" s="0" t="s">
         <v>692</v>
@@ -27155,7 +27155,7 @@
         <v>64</v>
       </c>
       <c r="E458" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F458" s="0" t="s">
         <v>397</v>
@@ -27193,7 +27193,7 @@
         <v>1594</v>
       </c>
       <c r="E459" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F459" s="0" t="s">
         <v>1595</v>
@@ -27231,7 +27231,7 @@
         <v>1598</v>
       </c>
       <c r="E460" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F460" s="0" t="s">
         <v>1599</v>
@@ -27269,7 +27269,7 @@
         <v>91</v>
       </c>
       <c r="E461" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F461" s="0" t="s">
         <v>1599</v>
@@ -27307,7 +27307,7 @@
         <v>1602</v>
       </c>
       <c r="E462" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F462" s="0" t="s">
         <v>1595</v>
@@ -27345,7 +27345,7 @@
         <v>1603</v>
       </c>
       <c r="E463" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F463" s="0" t="s">
         <v>1604</v>
@@ -27383,7 +27383,7 @@
         <v>1609</v>
       </c>
       <c r="E464" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F464" s="0" t="s">
         <v>24</v>
@@ -27421,7 +27421,7 @@
         <v>1612</v>
       </c>
       <c r="E465" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F465" s="0" t="s">
         <v>503</v>
@@ -27459,7 +27459,7 @@
         <v>1615</v>
       </c>
       <c r="E466" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F466" s="0" t="s">
         <v>503</v>
@@ -27497,7 +27497,7 @@
         <v>737</v>
       </c>
       <c r="E467" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F467" s="0" t="s">
         <v>520</v>
@@ -27535,7 +27535,7 @@
         <v>1618</v>
       </c>
       <c r="E468" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F468" s="0" t="s">
         <v>503</v>
@@ -27573,7 +27573,7 @@
         <v>1620</v>
       </c>
       <c r="E469" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F469" s="0" t="s">
         <v>24</v>
@@ -27611,7 +27611,7 @@
         <v>1623</v>
       </c>
       <c r="E470" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F470" s="0" t="s">
         <v>503</v>
@@ -27649,7 +27649,7 @@
         <v>1623</v>
       </c>
       <c r="E471" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F471" s="0" t="s">
         <v>24</v>
@@ -27687,7 +27687,7 @@
         <v>1627</v>
       </c>
       <c r="E472" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F472" s="0" t="s">
         <v>1628</v>
@@ -27725,7 +27725,7 @@
         <v>1431</v>
       </c>
       <c r="E473" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F473" s="0" t="s">
         <v>549</v>
@@ -27763,7 +27763,7 @@
         <v>1631</v>
       </c>
       <c r="E474" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F474" s="0" t="s">
         <v>700</v>
@@ -27801,7 +27801,7 @@
         <v>281</v>
       </c>
       <c r="E475" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F475" s="0" t="s">
         <v>24</v>
@@ -27839,7 +27839,7 @@
         <v>1634</v>
       </c>
       <c r="E476" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F476" s="0" t="s">
         <v>121</v>
@@ -27877,7 +27877,7 @@
         <v>1636</v>
       </c>
       <c r="E477" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F477" s="0" t="s">
         <v>24</v>
@@ -27915,7 +27915,7 @@
         <v>1639</v>
       </c>
       <c r="E478" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F478" s="0" t="s">
         <v>700</v>
@@ -27953,7 +27953,7 @@
         <v>1641</v>
       </c>
       <c r="E479" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F479" s="0" t="s">
         <v>161</v>
@@ -27991,7 +27991,7 @@
         <v>1643</v>
       </c>
       <c r="E480" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F480" s="0" t="s">
         <v>700</v>
@@ -28029,7 +28029,7 @@
         <v>1645</v>
       </c>
       <c r="E481" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F481" s="0" t="s">
         <v>549</v>
@@ -28067,7 +28067,7 @@
         <v>1647</v>
       </c>
       <c r="E482" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F482" s="0" t="s">
         <v>700</v>
@@ -28105,7 +28105,7 @@
         <v>1650</v>
       </c>
       <c r="E483" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F483" s="0" t="s">
         <v>24</v>
@@ -28143,7 +28143,7 @@
         <v>1650</v>
       </c>
       <c r="E484" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F484" s="0" t="s">
         <v>549</v>
@@ -28181,7 +28181,7 @@
         <v>1652</v>
       </c>
       <c r="E485" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F485" s="0" t="s">
         <v>24</v>
@@ -28219,7 +28219,7 @@
         <v>1655</v>
       </c>
       <c r="E486" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F486" s="0" t="s">
         <v>549</v>
@@ -28257,7 +28257,7 @@
         <v>1657</v>
       </c>
       <c r="E487" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F487" s="0" t="s">
         <v>549</v>
@@ -28295,7 +28295,7 @@
         <v>1658</v>
       </c>
       <c r="E488" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F488" s="0" t="s">
         <v>700</v>
@@ -28333,7 +28333,7 @@
         <v>1660</v>
       </c>
       <c r="E489" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F489" s="0" t="s">
         <v>549</v>
@@ -28371,7 +28371,7 @@
         <v>1662</v>
       </c>
       <c r="E490" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F490" s="0" t="s">
         <v>503</v>
@@ -28409,7 +28409,7 @@
         <v>1664</v>
       </c>
       <c r="E491" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F491" s="0" t="s">
         <v>549</v>
@@ -28447,7 +28447,7 @@
         <v>1666</v>
       </c>
       <c r="E492" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F492" s="0" t="s">
         <v>24</v>
@@ -28485,7 +28485,7 @@
         <v>1668</v>
       </c>
       <c r="E493" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F493" s="0" t="s">
         <v>503</v>
@@ -28523,7 +28523,7 @@
         <v>1671</v>
       </c>
       <c r="E494" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F494" s="0" t="s">
         <v>700</v>
@@ -28561,7 +28561,7 @@
         <v>1674</v>
       </c>
       <c r="E495" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F495" s="0" t="s">
         <v>24</v>
@@ -28599,7 +28599,7 @@
         <v>1675</v>
       </c>
       <c r="E496" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F496" s="0" t="s">
         <v>549</v>
@@ -28637,7 +28637,7 @@
         <v>1677</v>
       </c>
       <c r="E497" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F497" s="0" t="s">
         <v>161</v>
@@ -28675,7 +28675,7 @@
         <v>284</v>
       </c>
       <c r="E498" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F498" s="0" t="s">
         <v>503</v>
@@ -28713,7 +28713,7 @@
         <v>1679</v>
       </c>
       <c r="E499" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F499" s="0" t="s">
         <v>549</v>
@@ -28751,7 +28751,7 @@
         <v>484</v>
       </c>
       <c r="E500" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F500" s="0" t="s">
         <v>520</v>
@@ -28789,7 +28789,7 @@
         <v>1682</v>
       </c>
       <c r="E501" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F501" s="0" t="s">
         <v>24</v>
@@ -28827,7 +28827,7 @@
         <v>1282</v>
       </c>
       <c r="E502" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F502" s="0" t="s">
         <v>700</v>
@@ -28865,7 +28865,7 @@
         <v>1675</v>
       </c>
       <c r="E503" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F503" s="0" t="s">
         <v>24</v>
@@ -28903,7 +28903,7 @@
         <v>1685</v>
       </c>
       <c r="E504" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F504" s="0" t="s">
         <v>549</v>
@@ -28941,7 +28941,7 @@
         <v>1688</v>
       </c>
       <c r="E505" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F505" s="0" t="s">
         <v>24</v>
@@ -28979,7 +28979,7 @@
         <v>1690</v>
       </c>
       <c r="E506" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F506" s="0" t="s">
         <v>700</v>
@@ -29017,7 +29017,7 @@
         <v>1692</v>
       </c>
       <c r="E507" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F507" s="0" t="s">
         <v>549</v>
@@ -29055,7 +29055,7 @@
         <v>1695</v>
       </c>
       <c r="E508" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F508" s="0" t="s">
         <v>503</v>
@@ -29093,7 +29093,7 @@
         <v>1697</v>
       </c>
       <c r="E509" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F509" s="0" t="s">
         <v>24</v>
@@ -29131,7 +29131,7 @@
         <v>1699</v>
       </c>
       <c r="E510" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F510" s="0" t="s">
         <v>549</v>
@@ -29169,7 +29169,7 @@
         <v>1702</v>
       </c>
       <c r="E511" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F511" s="0" t="s">
         <v>24</v>
@@ -29207,7 +29207,7 @@
         <v>451</v>
       </c>
       <c r="E512" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F512" s="0" t="s">
         <v>24</v>
@@ -29245,7 +29245,7 @@
         <v>1705</v>
       </c>
       <c r="E513" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F513" s="0" t="s">
         <v>549</v>
@@ -29283,7 +29283,7 @@
         <v>1708</v>
       </c>
       <c r="E514" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F514" s="0" t="s">
         <v>1709</v>
@@ -29321,7 +29321,7 @@
         <v>1714</v>
       </c>
       <c r="E515" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F515" s="0" t="s">
         <v>1715</v>
@@ -29359,7 +29359,7 @@
         <v>1719</v>
       </c>
       <c r="E516" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F516" s="0" t="s">
         <v>1720</v>
@@ -29397,7 +29397,7 @@
         <v>1722</v>
       </c>
       <c r="E517" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F517" s="0" t="s">
         <v>1720</v>
@@ -29435,7 +29435,7 @@
         <v>1724</v>
       </c>
       <c r="E518" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F518" s="0" t="s">
         <v>43</v>
@@ -29473,7 +29473,7 @@
         <v>752</v>
       </c>
       <c r="E519" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F519" s="0" t="s">
         <v>65</v>
@@ -29511,7 +29511,7 @@
         <v>1727</v>
       </c>
       <c r="E520" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F520" s="0" t="s">
         <v>43</v>
@@ -29549,7 +29549,7 @@
         <v>788</v>
       </c>
       <c r="E521" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F521" s="0" t="s">
         <v>1729</v>
@@ -29587,7 +29587,7 @@
         <v>921</v>
       </c>
       <c r="E522" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F522" s="0" t="s">
         <v>1316</v>
@@ -29625,7 +29625,7 @@
         <v>1735</v>
       </c>
       <c r="E523" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F523" s="0" t="s">
         <v>97</v>
@@ -29663,7 +29663,7 @@
         <v>870</v>
       </c>
       <c r="E524" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F524" s="0" t="s">
         <v>722</v>
@@ -29701,7 +29701,7 @@
         <v>405</v>
       </c>
       <c r="E525" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F525" s="0" t="s">
         <v>14</v>
@@ -29739,7 +29739,7 @@
         <v>1748</v>
       </c>
       <c r="E526" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F526" s="0" t="s">
         <v>150</v>
@@ -29777,7 +29777,7 @@
         <v>1752</v>
       </c>
       <c r="E527" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F527" s="0" t="s">
         <v>1753</v>
@@ -29815,7 +29815,7 @@
         <v>1758</v>
       </c>
       <c r="E528" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F528" s="0" t="s">
         <v>65</v>
@@ -29853,7 +29853,7 @@
         <v>1760</v>
       </c>
       <c r="E529" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F529" s="0" t="s">
         <v>801</v>
@@ -29891,7 +29891,7 @@
         <v>1765</v>
       </c>
       <c r="E530" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F530" s="0" t="s">
         <v>583</v>
@@ -29929,7 +29929,7 @@
         <v>1767</v>
       </c>
       <c r="E531" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F531" s="0" t="s">
         <v>801</v>
@@ -29967,7 +29967,7 @@
         <v>1770</v>
       </c>
       <c r="E532" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F532" s="0" t="s">
         <v>1163</v>
@@ -30005,7 +30005,7 @@
         <v>1772</v>
       </c>
       <c r="E533" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F533" s="0" t="s">
         <v>801</v>
@@ -30043,7 +30043,7 @@
         <v>1773</v>
       </c>
       <c r="E534" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F534" s="0" t="s">
         <v>1774</v>
@@ -30081,7 +30081,7 @@
         <v>351</v>
       </c>
       <c r="E535" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F535" s="0" t="s">
         <v>1774</v>
@@ -30119,7 +30119,7 @@
         <v>749</v>
       </c>
       <c r="E536" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F536" s="0" t="s">
         <v>1774</v>
@@ -30157,7 +30157,7 @@
         <v>1781</v>
       </c>
       <c r="E537" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F537" s="0" t="s">
         <v>1774</v>
@@ -30195,7 +30195,7 @@
         <v>1783</v>
       </c>
       <c r="E538" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F538" s="0" t="s">
         <v>40</v>
@@ -30233,7 +30233,7 @@
         <v>1788</v>
       </c>
       <c r="E539" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F539" s="0" t="s">
         <v>583</v>
@@ -30271,7 +30271,7 @@
         <v>1794</v>
       </c>
       <c r="E540" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F540" s="0" t="s">
         <v>161</v>
@@ -30309,7 +30309,7 @@
         <v>1797</v>
       </c>
       <c r="E541" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F541" s="0" t="s">
         <v>583</v>
@@ -30347,7 +30347,7 @@
         <v>1800</v>
       </c>
       <c r="E542" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F542" s="0" t="s">
         <v>583</v>
@@ -30385,7 +30385,7 @@
         <v>1579</v>
       </c>
       <c r="E543" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F543" s="0" t="s">
         <v>65</v>
@@ -30423,7 +30423,7 @@
         <v>168</v>
       </c>
       <c r="E544" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F544" s="0" t="s">
         <v>65</v>
@@ -30461,7 +30461,7 @@
         <v>1807</v>
       </c>
       <c r="E545" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F545" s="0" t="s">
         <v>14</v>
@@ -30499,7 +30499,7 @@
         <v>484</v>
       </c>
       <c r="E546" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F546" s="0" t="s">
         <v>108</v>
@@ -30537,7 +30537,7 @@
         <v>1811</v>
       </c>
       <c r="E547" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F547" s="0" t="s">
         <v>14</v>
@@ -30575,7 +30575,7 @@
         <v>1813</v>
       </c>
       <c r="E548" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F548" s="0" t="s">
         <v>108</v>
@@ -30613,7 +30613,7 @@
         <v>1815</v>
       </c>
       <c r="E549" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F549" s="0" t="s">
         <v>104</v>
@@ -30651,7 +30651,7 @@
         <v>1817</v>
       </c>
       <c r="E550" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F550" s="0" t="s">
         <v>108</v>
@@ -30689,7 +30689,7 @@
         <v>1819</v>
       </c>
       <c r="E551" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F551" s="0" t="s">
         <v>108</v>
@@ -30727,7 +30727,7 @@
         <v>1821</v>
       </c>
       <c r="E552" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F552" s="0" t="s">
         <v>108</v>
@@ -30765,7 +30765,7 @@
         <v>1823</v>
       </c>
       <c r="E553" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F553" s="0" t="s">
         <v>58</v>
@@ -30803,7 +30803,7 @@
         <v>184</v>
       </c>
       <c r="E554" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F554" s="0" t="s">
         <v>1120</v>
@@ -30841,7 +30841,7 @@
         <v>1830</v>
       </c>
       <c r="E555" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F555" s="0" t="s">
         <v>1120</v>
@@ -30879,7 +30879,7 @@
         <v>1832</v>
       </c>
       <c r="E556" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F556" s="0" t="s">
         <v>966</v>
@@ -30917,7 +30917,7 @@
         <v>1835</v>
       </c>
       <c r="E557" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F557" s="0" t="s">
         <v>1075</v>
@@ -30955,7 +30955,7 @@
         <v>921</v>
       </c>
       <c r="E558" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F558" s="0" t="s">
         <v>966</v>
@@ -30993,7 +30993,7 @@
         <v>628</v>
       </c>
       <c r="E559" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F559" s="0" t="s">
         <v>966</v>
@@ -31031,7 +31031,7 @@
         <v>1839</v>
       </c>
       <c r="E560" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F560" s="0" t="s">
         <v>966</v>
@@ -31069,7 +31069,7 @@
         <v>857</v>
       </c>
       <c r="E561" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F561" s="0" t="s">
         <v>397</v>
@@ -31107,7 +31107,7 @@
         <v>1842</v>
       </c>
       <c r="E562" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F562" s="0" t="s">
         <v>1843</v>
@@ -31145,7 +31145,7 @@
         <v>15</v>
       </c>
       <c r="E563" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F563" s="0" t="s">
         <v>1848</v>
@@ -31183,7 +31183,7 @@
         <v>923</v>
       </c>
       <c r="E564" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F564" s="0" t="s">
         <v>1843</v>
@@ -31221,7 +31221,7 @@
         <v>537</v>
       </c>
       <c r="E565" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F565" s="0" t="s">
         <v>1851</v>
@@ -31259,7 +31259,7 @@
         <v>1853</v>
       </c>
       <c r="E566" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F566" s="0" t="s">
         <v>1854</v>
@@ -31297,7 +31297,7 @@
         <v>975</v>
       </c>
       <c r="E567" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F567" s="0" t="s">
         <v>150</v>
@@ -31335,7 +31335,7 @@
         <v>1860</v>
       </c>
       <c r="E568" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F568" s="0" t="s">
         <v>1861</v>
@@ -31373,7 +31373,7 @@
         <v>176</v>
       </c>
       <c r="E569" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F569" s="0" t="s">
         <v>161</v>
@@ -31411,7 +31411,7 @@
         <v>803</v>
       </c>
       <c r="E570" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F570" s="0" t="s">
         <v>161</v>
@@ -31449,7 +31449,7 @@
         <v>1870</v>
       </c>
       <c r="E571" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F571" s="0" t="s">
         <v>325</v>
@@ -31487,7 +31487,7 @@
         <v>1875</v>
       </c>
       <c r="E572" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F572" s="0" t="s">
         <v>549</v>
@@ -31525,7 +31525,7 @@
         <v>1682</v>
       </c>
       <c r="E573" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F573" s="0" t="s">
         <v>24</v>
@@ -31563,7 +31563,7 @@
         <v>1880</v>
       </c>
       <c r="E574" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F574" s="0" t="s">
         <v>97</v>
@@ -31601,7 +31601,7 @@
         <v>1291</v>
       </c>
       <c r="E575" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F575" s="0" t="s">
         <v>161</v>
@@ -31639,7 +31639,7 @@
         <v>1888</v>
       </c>
       <c r="E576" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F576" s="0" t="s">
         <v>81</v>
@@ -31677,7 +31677,7 @@
         <v>1830</v>
       </c>
       <c r="E577" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F577" s="0" t="s">
         <v>161</v>
@@ -31715,7 +31715,7 @@
         <v>474</v>
       </c>
       <c r="E578" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F578" s="0" t="s">
         <v>1139</v>
@@ -31753,7 +31753,7 @@
         <v>1895</v>
       </c>
       <c r="E579" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F579" s="0" t="s">
         <v>1896</v>
@@ -31791,7 +31791,7 @@
         <v>1794</v>
       </c>
       <c r="E580" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F580" s="0" t="s">
         <v>1902</v>
@@ -31829,7 +31829,7 @@
         <v>1905</v>
       </c>
       <c r="E581" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F581" s="0" t="s">
         <v>1902</v>
@@ -31867,7 +31867,7 @@
         <v>1336</v>
       </c>
       <c r="E582" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F582" s="0" t="s">
         <v>54</v>
@@ -31905,7 +31905,7 @@
         <v>1912</v>
       </c>
       <c r="E583" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F583" s="0" t="s">
         <v>65</v>
@@ -31943,7 +31943,7 @@
         <v>1914</v>
       </c>
       <c r="E584" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F584" s="0" t="s">
         <v>370</v>
@@ -31981,7 +31981,7 @@
         <v>1919</v>
       </c>
       <c r="E585" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F585" s="0" t="s">
         <v>370</v>
@@ -32019,7 +32019,7 @@
         <v>1922</v>
       </c>
       <c r="E586" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F586" s="0" t="s">
         <v>104</v>
@@ -32057,7 +32057,7 @@
         <v>1925</v>
       </c>
       <c r="E587" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F587" s="0" t="s">
         <v>121</v>
@@ -32095,7 +32095,7 @@
         <v>1928</v>
       </c>
       <c r="E588" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F588" s="0" t="s">
         <v>40</v>
@@ -32133,7 +32133,7 @@
         <v>860</v>
       </c>
       <c r="E589" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F589" s="0" t="s">
         <v>40</v>
@@ -32171,7 +32171,7 @@
         <v>1931</v>
       </c>
       <c r="E590" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F590" s="0" t="s">
         <v>370</v>
@@ -32209,7 +32209,7 @@
         <v>1781</v>
       </c>
       <c r="E591" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F591" s="0" t="s">
         <v>370</v>
@@ -32247,7 +32247,7 @@
         <v>1405</v>
       </c>
       <c r="E592" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F592" s="0" t="s">
         <v>370</v>
@@ -32285,7 +32285,7 @@
         <v>521</v>
       </c>
       <c r="E593" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F593" s="0" t="s">
         <v>161</v>
@@ -32323,7 +32323,7 @@
         <v>1760</v>
       </c>
       <c r="E594" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F594" s="0" t="s">
         <v>161</v>
@@ -32361,7 +32361,7 @@
         <v>1939</v>
       </c>
       <c r="E595" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F595" s="0" t="s">
         <v>370</v>
@@ -32399,7 +32399,7 @@
         <v>1061</v>
       </c>
       <c r="E596" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F596" s="0" t="s">
         <v>81</v>
@@ -32437,7 +32437,7 @@
         <v>668</v>
       </c>
       <c r="E597" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F597" s="0" t="s">
         <v>97</v>
@@ -32475,7 +32475,7 @@
         <v>1331</v>
       </c>
       <c r="E598" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F598" s="0" t="s">
         <v>97</v>
@@ -32513,7 +32513,7 @@
         <v>1946</v>
       </c>
       <c r="E599" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F599" s="0" t="s">
         <v>14</v>
@@ -32551,7 +32551,7 @@
         <v>1014</v>
       </c>
       <c r="E600" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F600" s="0" t="s">
         <v>97</v>
@@ -32589,7 +32589,7 @@
         <v>1950</v>
       </c>
       <c r="E601" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F601" s="0" t="s">
         <v>97</v>
@@ -32627,7 +32627,7 @@
         <v>1952</v>
       </c>
       <c r="E602" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F602" s="0" t="s">
         <v>14</v>
@@ -32665,7 +32665,7 @@
         <v>345</v>
       </c>
       <c r="E603" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F603" s="0" t="s">
         <v>97</v>
@@ -32703,7 +32703,7 @@
         <v>1954</v>
       </c>
       <c r="E604" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F604" s="0" t="s">
         <v>43</v>
@@ -32741,7 +32741,7 @@
         <v>1960</v>
       </c>
       <c r="E605" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F605" s="0" t="s">
         <v>43</v>
@@ -32779,7 +32779,7 @@
         <v>1962</v>
       </c>
       <c r="E606" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F606" s="0" t="s">
         <v>54</v>
@@ -32817,7 +32817,7 @@
         <v>1967</v>
       </c>
       <c r="E607" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F607" s="0" t="s">
         <v>43</v>
@@ -32855,7 +32855,7 @@
         <v>1969</v>
       </c>
       <c r="E608" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F608" s="0" t="s">
         <v>43</v>
@@ -32893,7 +32893,7 @@
         <v>1972</v>
       </c>
       <c r="E609" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F609" s="0" t="s">
         <v>1973</v>
@@ -32931,7 +32931,7 @@
         <v>1975</v>
       </c>
       <c r="E610" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F610" s="0" t="s">
         <v>43</v>
@@ -32969,7 +32969,7 @@
         <v>1977</v>
       </c>
       <c r="E611" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F611" s="0" t="s">
         <v>1753</v>
@@ -33007,7 +33007,7 @@
         <v>652</v>
       </c>
       <c r="E612" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F612" s="0" t="s">
         <v>1982</v>
@@ -33045,7 +33045,7 @@
         <v>1988</v>
       </c>
       <c r="E613" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F613" s="0" t="s">
         <v>1989</v>
@@ -33083,7 +33083,7 @@
         <v>252</v>
       </c>
       <c r="E614" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F614" s="0" t="s">
         <v>1114</v>
@@ -33121,7 +33121,7 @@
         <v>1758</v>
       </c>
       <c r="E615" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F615" s="0" t="s">
         <v>325</v>
@@ -33159,7 +33159,7 @@
         <v>1997</v>
       </c>
       <c r="E616" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F616" s="0" t="s">
         <v>40</v>
@@ -33197,7 +33197,7 @@
         <v>2001</v>
       </c>
       <c r="E617" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F617" s="0" t="s">
         <v>40</v>
@@ -33235,7 +33235,7 @@
         <v>2004</v>
       </c>
       <c r="E618" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F618" s="0" t="s">
         <v>40</v>
@@ -33273,7 +33273,7 @@
         <v>1823</v>
       </c>
       <c r="E619" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F619" s="0" t="s">
         <v>40</v>
@@ -33311,7 +33311,7 @@
         <v>1456</v>
       </c>
       <c r="E620" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F620" s="0" t="s">
         <v>97</v>
@@ -33349,7 +33349,7 @@
         <v>1832</v>
       </c>
       <c r="E621" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F621" s="0" t="s">
         <v>40</v>
@@ -33387,7 +33387,7 @@
         <v>2008</v>
       </c>
       <c r="E622" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F622" s="0" t="s">
         <v>40</v>
@@ -33425,7 +33425,7 @@
         <v>2010</v>
       </c>
       <c r="E623" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F623" s="0" t="s">
         <v>40</v>
@@ -33463,7 +33463,7 @@
         <v>240</v>
       </c>
       <c r="E624" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F624" s="0" t="s">
         <v>161</v>
@@ -33501,7 +33501,7 @@
         <v>387</v>
       </c>
       <c r="E625" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F625" s="0" t="s">
         <v>756</v>
@@ -33539,7 +33539,7 @@
         <v>2019</v>
       </c>
       <c r="E626" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F626" s="0" t="s">
         <v>382</v>
@@ -33577,7 +33577,7 @@
         <v>2021</v>
       </c>
       <c r="E627" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F627" s="0" t="s">
         <v>65</v>
@@ -33615,7 +33615,7 @@
         <v>810</v>
       </c>
       <c r="E628" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F628" s="0" t="s">
         <v>1114</v>
@@ -33653,7 +33653,7 @@
         <v>2024</v>
       </c>
       <c r="E629" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F629" s="0" t="s">
         <v>692</v>
@@ -33691,7 +33691,7 @@
         <v>623</v>
       </c>
       <c r="E630" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F630" s="0" t="s">
         <v>692</v>
@@ -33729,7 +33729,7 @@
         <v>48</v>
       </c>
       <c r="E631" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F631" s="0" t="s">
         <v>2031</v>
@@ -33767,7 +33767,7 @@
         <v>644</v>
       </c>
       <c r="E632" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F632" s="0" t="s">
         <v>2031</v>
@@ -33805,7 +33805,7 @@
         <v>2036</v>
       </c>
       <c r="E633" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F633" s="0" t="s">
         <v>738</v>
@@ -33843,7 +33843,7 @@
         <v>1064</v>
       </c>
       <c r="E634" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F634" s="0" t="s">
         <v>1896</v>
@@ -33881,7 +33881,7 @@
         <v>2040</v>
       </c>
       <c r="E635" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F635" s="0" t="s">
         <v>2041</v>
@@ -33919,7 +33919,7 @@
         <v>1243</v>
       </c>
       <c r="E636" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F636" s="0" t="s">
         <v>370</v>
@@ -33957,7 +33957,7 @@
         <v>2048</v>
       </c>
       <c r="E637" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F637" s="0" t="s">
         <v>104</v>
@@ -33995,7 +33995,7 @@
         <v>798</v>
       </c>
       <c r="E638" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F638" s="0" t="s">
         <v>104</v>
@@ -34033,7 +34033,7 @@
         <v>2051</v>
       </c>
       <c r="E639" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F639" s="0" t="s">
         <v>756</v>
@@ -34071,7 +34071,7 @@
         <v>1351</v>
       </c>
       <c r="E640" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F640" s="0" t="s">
         <v>2056</v>
@@ -34109,7 +34109,7 @@
         <v>2059</v>
       </c>
       <c r="E641" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F641" s="0" t="s">
         <v>2060</v>
@@ -34147,7 +34147,7 @@
         <v>2064</v>
       </c>
       <c r="E642" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F642" s="0" t="s">
         <v>357</v>
@@ -34185,7 +34185,7 @@
         <v>2068</v>
       </c>
       <c r="E643" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F643" s="0" t="s">
         <v>1075</v>
@@ -34223,7 +34223,7 @@
         <v>2070</v>
       </c>
       <c r="E644" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F644" s="0" t="s">
         <v>357</v>
@@ -34261,7 +34261,7 @@
         <v>2071</v>
       </c>
       <c r="E645" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F645" s="0" t="s">
         <v>1075</v>
@@ -34299,7 +34299,7 @@
         <v>2073</v>
       </c>
       <c r="E646" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F646" s="0" t="s">
         <v>969</v>
@@ -34337,7 +34337,7 @@
         <v>309</v>
       </c>
       <c r="E647" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F647" s="0" t="s">
         <v>801</v>
@@ -34375,7 +34375,7 @@
         <v>2079</v>
       </c>
       <c r="E648" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F648" s="0" t="s">
         <v>410</v>
@@ -34413,7 +34413,7 @@
         <v>146</v>
       </c>
       <c r="E649" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F649" s="0" t="s">
         <v>801</v>
@@ -34451,7 +34451,7 @@
         <v>294</v>
       </c>
       <c r="E650" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F650" s="0" t="s">
         <v>801</v>
@@ -34489,7 +34489,7 @@
         <v>2083</v>
       </c>
       <c r="E651" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F651" s="0" t="s">
         <v>1163</v>
@@ -34527,7 +34527,7 @@
         <v>2085</v>
       </c>
       <c r="E652" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F652" s="0" t="s">
         <v>16</v>
@@ -34565,7 +34565,7 @@
         <v>2089</v>
       </c>
       <c r="E653" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F653" s="0" t="s">
         <v>65</v>
@@ -34603,7 +34603,7 @@
         <v>2092</v>
       </c>
       <c r="E654" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F654" s="0" t="s">
         <v>988</v>
@@ -34641,7 +34641,7 @@
         <v>2094</v>
       </c>
       <c r="E655" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F655" s="0" t="s">
         <v>2095</v>
@@ -34679,7 +34679,7 @@
         <v>896</v>
       </c>
       <c r="E656" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F656" s="0" t="s">
         <v>370</v>
@@ -34717,7 +34717,7 @@
         <v>2100</v>
       </c>
       <c r="E657" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F657" s="0" t="s">
         <v>370</v>
@@ -34755,7 +34755,7 @@
         <v>2102</v>
       </c>
       <c r="E658" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F658" s="0" t="s">
         <v>161</v>
@@ -34793,7 +34793,7 @@
         <v>2102</v>
       </c>
       <c r="E659" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F659" s="0" t="s">
         <v>161</v>
@@ -34831,7 +34831,7 @@
         <v>2107</v>
       </c>
       <c r="E660" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F660" s="0" t="s">
         <v>97</v>
@@ -34869,7 +34869,7 @@
         <v>891</v>
       </c>
       <c r="E661" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F661" s="0" t="s">
         <v>203</v>
@@ -34907,7 +34907,7 @@
         <v>2112</v>
       </c>
       <c r="E662" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F662" s="0" t="s">
         <v>97</v>
@@ -34945,7 +34945,7 @@
         <v>2114</v>
       </c>
       <c r="E663" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F663" s="0" t="s">
         <v>97</v>
@@ -34983,7 +34983,7 @@
         <v>2116</v>
       </c>
       <c r="E664" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F664" s="0" t="s">
         <v>97</v>
@@ -35021,7 +35021,7 @@
         <v>2118</v>
       </c>
       <c r="E665" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F665" s="0" t="s">
         <v>97</v>
@@ -35059,7 +35059,7 @@
         <v>258</v>
       </c>
       <c r="E666" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F666" s="0" t="s">
         <v>2122</v>
@@ -35097,7 +35097,7 @@
         <v>2128</v>
       </c>
       <c r="E667" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F667" s="0" t="s">
         <v>2122</v>
@@ -35135,7 +35135,7 @@
         <v>2130</v>
       </c>
       <c r="E668" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F668" s="0" t="s">
         <v>2122</v>
@@ -35173,7 +35173,7 @@
         <v>61</v>
       </c>
       <c r="E669" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F669" s="0" t="s">
         <v>2132</v>
@@ -35211,7 +35211,7 @@
         <v>2137</v>
       </c>
       <c r="E670" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F670" s="0" t="s">
         <v>1422</v>
@@ -35249,7 +35249,7 @@
         <v>2139</v>
       </c>
       <c r="E671" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F671" s="0" t="s">
         <v>121</v>
@@ -35287,7 +35287,7 @@
         <v>2089</v>
       </c>
       <c r="E672" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F672" s="0" t="s">
         <v>2141</v>
@@ -35325,7 +35325,7 @@
         <v>2143</v>
       </c>
       <c r="E673" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F673" s="0" t="s">
         <v>2144</v>
@@ -35363,7 +35363,7 @@
         <v>2146</v>
       </c>
       <c r="E674" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F674" s="0" t="s">
         <v>2147</v>
@@ -35401,7 +35401,7 @@
         <v>2149</v>
       </c>
       <c r="E675" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F675" s="0" t="s">
         <v>2150</v>
@@ -35439,7 +35439,7 @@
         <v>808</v>
       </c>
       <c r="E676" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F676" s="0" t="s">
         <v>2155</v>
@@ -35477,7 +35477,7 @@
         <v>91</v>
       </c>
       <c r="E677" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F677" s="0" t="s">
         <v>397</v>
@@ -35515,7 +35515,7 @@
         <v>755</v>
       </c>
       <c r="E678" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F678" s="0" t="s">
         <v>357</v>
@@ -35553,7 +35553,7 @@
         <v>2162</v>
       </c>
       <c r="E679" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F679" s="0" t="s">
         <v>357</v>
@@ -35591,7 +35591,7 @@
         <v>2165</v>
       </c>
       <c r="E680" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F680" s="0" t="s">
         <v>2166</v>
@@ -35629,7 +35629,7 @@
         <v>2174</v>
       </c>
       <c r="E681" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F681" s="0" t="s">
         <v>2175</v>
@@ -35667,7 +35667,7 @@
         <v>1772</v>
       </c>
       <c r="E682" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F682" s="0" t="s">
         <v>40</v>
@@ -35705,7 +35705,7 @@
         <v>2181</v>
       </c>
       <c r="E683" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F683" s="0" t="s">
         <v>957</v>
@@ -35743,7 +35743,7 @@
         <v>2185</v>
       </c>
       <c r="E684" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F684" s="0" t="s">
         <v>1178</v>
@@ -35781,7 +35781,7 @@
         <v>2187</v>
       </c>
       <c r="E685" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F685" s="0" t="s">
         <v>827</v>
@@ -35819,7 +35819,7 @@
         <v>2190</v>
       </c>
       <c r="E686" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F686" s="0" t="s">
         <v>1184</v>
@@ -35857,7 +35857,7 @@
         <v>345</v>
       </c>
       <c r="E687" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F687" s="0" t="s">
         <v>1178</v>
@@ -35895,7 +35895,7 @@
         <v>1255</v>
       </c>
       <c r="E688" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F688" s="0" t="s">
         <v>2193</v>
@@ -35933,7 +35933,7 @@
         <v>442</v>
       </c>
       <c r="E689" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F689" s="0" t="s">
         <v>2198</v>
@@ -35971,7 +35971,7 @@
         <v>96</v>
       </c>
       <c r="E690" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F690" s="0" t="s">
         <v>2193</v>
@@ -36009,7 +36009,7 @@
         <v>798</v>
       </c>
       <c r="E691" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F691" s="0" t="s">
         <v>161</v>
@@ -36047,7 +36047,7 @@
         <v>2202</v>
       </c>
       <c r="E692" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F692" s="0" t="s">
         <v>2203</v>
@@ -36085,7 +36085,7 @@
         <v>2205</v>
       </c>
       <c r="E693" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F693" s="0" t="s">
         <v>871</v>
@@ -36123,7 +36123,7 @@
         <v>157</v>
       </c>
       <c r="E694" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F694" s="0" t="s">
         <v>2210</v>
@@ -36161,7 +36161,7 @@
         <v>2165</v>
       </c>
       <c r="E695" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F695" s="0" t="s">
         <v>1709</v>
@@ -36199,7 +36199,7 @@
         <v>2217</v>
       </c>
       <c r="E696" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F696" s="0" t="s">
         <v>1709</v>
@@ -36237,7 +36237,7 @@
         <v>1977</v>
       </c>
       <c r="E697" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F697" s="0" t="s">
         <v>2220</v>
@@ -36275,7 +36275,7 @@
         <v>2222</v>
       </c>
       <c r="E698" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F698" s="0" t="s">
         <v>54</v>
@@ -36313,7 +36313,7 @@
         <v>2165</v>
       </c>
       <c r="E699" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F699" s="0" t="s">
         <v>2224</v>
@@ -36351,7 +36351,7 @@
         <v>2229</v>
       </c>
       <c r="E700" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F700" s="0" t="s">
         <v>43</v>
@@ -36389,7 +36389,7 @@
         <v>2230</v>
       </c>
       <c r="E701" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F701" s="0" t="s">
         <v>54</v>
@@ -36427,7 +36427,7 @@
         <v>2232</v>
       </c>
       <c r="E702" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F702" s="0" t="s">
         <v>988</v>
@@ -36465,7 +36465,7 @@
         <v>618</v>
       </c>
       <c r="E703" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F703" s="0" t="s">
         <v>2224</v>
@@ -36503,7 +36503,7 @@
         <v>2235</v>
       </c>
       <c r="E704" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F704" s="0" t="s">
         <v>54</v>
@@ -36541,7 +36541,7 @@
         <v>842</v>
       </c>
       <c r="E705" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F705" s="0" t="s">
         <v>54</v>
@@ -36579,7 +36579,7 @@
         <v>2238</v>
       </c>
       <c r="E706" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F706" s="0" t="s">
         <v>97</v>
@@ -36617,7 +36617,7 @@
         <v>2244</v>
       </c>
       <c r="E707" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F707" s="0" t="s">
         <v>1346</v>
@@ -36655,7 +36655,7 @@
         <v>2248</v>
       </c>
       <c r="E708" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F708" s="0" t="s">
         <v>1346</v>
@@ -36693,7 +36693,7 @@
         <v>2251</v>
       </c>
       <c r="E709" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F709" s="0" t="s">
         <v>121</v>
@@ -36731,7 +36731,7 @@
         <v>187</v>
       </c>
       <c r="E710" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F710" s="0" t="s">
         <v>1346</v>
@@ -36769,7 +36769,7 @@
         <v>1448</v>
       </c>
       <c r="E711" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F711" s="0" t="s">
         <v>2254</v>
@@ -36807,7 +36807,7 @@
         <v>808</v>
       </c>
       <c r="E712" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F712" s="0" t="s">
         <v>2256</v>
@@ -36845,7 +36845,7 @@
         <v>2257</v>
       </c>
       <c r="E713" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F713" s="0" t="s">
         <v>108</v>
@@ -36883,7 +36883,7 @@
         <v>502</v>
       </c>
       <c r="E714" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F714" s="0" t="s">
         <v>370</v>
@@ -36921,7 +36921,7 @@
         <v>1041</v>
       </c>
       <c r="E715" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F715" s="0" t="s">
         <v>24</v>
@@ -36959,7 +36959,7 @@
         <v>1719</v>
       </c>
       <c r="E716" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F716" s="0" t="s">
         <v>591</v>
@@ -36997,7 +36997,7 @@
         <v>1772</v>
       </c>
       <c r="E717" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F717" s="0" t="s">
         <v>357</v>
@@ -37035,7 +37035,7 @@
         <v>873</v>
       </c>
       <c r="E718" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F718" s="0" t="s">
         <v>397</v>
@@ -37073,7 +37073,7 @@
         <v>2276</v>
       </c>
       <c r="E719" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F719" s="0" t="s">
         <v>340</v>
@@ -37111,7 +37111,7 @@
         <v>2281</v>
       </c>
       <c r="E720" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F720" s="0" t="s">
         <v>2282</v>
@@ -37149,7 +37149,7 @@
         <v>2285</v>
       </c>
       <c r="E721" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F721" s="0" t="s">
         <v>54</v>
@@ -37187,7 +37187,7 @@
         <v>2288</v>
       </c>
       <c r="E722" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F722" s="0" t="s">
         <v>1753</v>
@@ -37225,7 +37225,7 @@
         <v>2290</v>
       </c>
       <c r="E723" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F723" s="0" t="s">
         <v>65</v>
@@ -37263,7 +37263,7 @@
         <v>2292</v>
       </c>
       <c r="E724" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F724" s="0" t="s">
         <v>54</v>
@@ -37301,7 +37301,7 @@
         <v>2294</v>
       </c>
       <c r="E725" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F725" s="0" t="s">
         <v>503</v>
@@ -37339,7 +37339,7 @@
         <v>2299</v>
       </c>
       <c r="E726" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F726" s="0" t="s">
         <v>2300</v>
@@ -37377,7 +37377,7 @@
         <v>448</v>
       </c>
       <c r="E727" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F727" s="0" t="s">
         <v>2304</v>
@@ -37415,7 +37415,7 @@
         <v>2308</v>
       </c>
       <c r="E728" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F728" s="0" t="s">
         <v>2304</v>
@@ -37453,7 +37453,7 @@
         <v>2308</v>
       </c>
       <c r="E729" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F729" s="0" t="s">
         <v>2304</v>
@@ -37491,7 +37491,7 @@
         <v>144</v>
       </c>
       <c r="E730" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F730" s="0" t="s">
         <v>104</v>
@@ -37529,7 +37529,7 @@
         <v>348</v>
       </c>
       <c r="E731" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F731" s="0" t="s">
         <v>54</v>
@@ -37567,7 +37567,7 @@
         <v>2317</v>
       </c>
       <c r="E732" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F732" s="0" t="s">
         <v>54</v>
@@ -37605,7 +37605,7 @@
         <v>2319</v>
       </c>
       <c r="E733" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F733" s="0" t="s">
         <v>864</v>
@@ -37643,7 +37643,7 @@
         <v>2324</v>
       </c>
       <c r="E734" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F734" s="0" t="s">
         <v>966</v>
@@ -37681,7 +37681,7 @@
         <v>2116</v>
       </c>
       <c r="E735" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F735" s="0" t="s">
         <v>966</v>
@@ -37719,7 +37719,7 @@
         <v>2329</v>
       </c>
       <c r="E736" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F736" s="0" t="s">
         <v>1114</v>
@@ -37757,7 +37757,7 @@
         <v>1598</v>
       </c>
       <c r="E737" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F737" s="0" t="s">
         <v>65</v>
@@ -37795,7 +37795,7 @@
         <v>521</v>
       </c>
       <c r="E738" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F738" s="0" t="s">
         <v>43</v>
@@ -37833,7 +37833,7 @@
         <v>474</v>
       </c>
       <c r="E739" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F739" s="0" t="s">
         <v>65</v>
@@ -37871,7 +37871,7 @@
         <v>2339</v>
       </c>
       <c r="E740" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F740" s="0" t="s">
         <v>1753</v>
@@ -37909,7 +37909,7 @@
         <v>345</v>
       </c>
       <c r="E741" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F741" s="0" t="s">
         <v>54</v>
@@ -37947,7 +37947,7 @@
         <v>979</v>
       </c>
       <c r="E742" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F742" s="0" t="s">
         <v>65</v>
@@ -37985,7 +37985,7 @@
         <v>933</v>
       </c>
       <c r="E743" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F743" s="0" t="s">
         <v>2348</v>
@@ -38023,7 +38023,7 @@
         <v>1397</v>
       </c>
       <c r="E744" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F744" s="0" t="s">
         <v>583</v>
@@ -38061,7 +38061,7 @@
         <v>742</v>
       </c>
       <c r="E745" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F745" s="0" t="s">
         <v>583</v>
@@ -38099,7 +38099,7 @@
         <v>2355</v>
       </c>
       <c r="E746" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F746" s="0" t="s">
         <v>65</v>
@@ -38137,7 +38137,7 @@
         <v>2358</v>
       </c>
       <c r="E747" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F747" s="0" t="s">
         <v>104</v>
@@ -38175,7 +38175,7 @@
         <v>2362</v>
       </c>
       <c r="E748" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F748" s="0" t="s">
         <v>104</v>
@@ -38213,7 +38213,7 @@
         <v>684</v>
       </c>
       <c r="E749" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F749" s="0" t="s">
         <v>161</v>
@@ -38251,7 +38251,7 @@
         <v>1765</v>
       </c>
       <c r="E750" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F750" s="0" t="s">
         <v>121</v>
@@ -38289,7 +38289,7 @@
         <v>2371</v>
       </c>
       <c r="E751" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F751" s="0" t="s">
         <v>121</v>
@@ -38327,7 +38327,7 @@
         <v>616</v>
       </c>
       <c r="E752" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F752" s="0" t="s">
         <v>161</v>
@@ -38365,7 +38365,7 @@
         <v>2374</v>
       </c>
       <c r="E753" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F753" s="0" t="s">
         <v>121</v>
@@ -38403,7 +38403,7 @@
         <v>1273</v>
       </c>
       <c r="E754" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F754" s="0" t="s">
         <v>121</v>
@@ -38441,7 +38441,7 @@
         <v>2376</v>
       </c>
       <c r="E755" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F755" s="0" t="s">
         <v>40</v>
@@ -38479,7 +38479,7 @@
         <v>2329</v>
       </c>
       <c r="E756" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F756" s="0" t="s">
         <v>14</v>
@@ -38517,7 +38517,7 @@
         <v>2380</v>
       </c>
       <c r="E757" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F757" s="0" t="s">
         <v>81</v>
@@ -38555,7 +38555,7 @@
         <v>2383</v>
       </c>
       <c r="E758" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F758" s="0" t="s">
         <v>81</v>
@@ -38593,7 +38593,7 @@
         <v>919</v>
       </c>
       <c r="E759" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F759" s="0" t="s">
         <v>285</v>
@@ -38631,7 +38631,7 @@
         <v>2389</v>
       </c>
       <c r="E760" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F760" s="0" t="s">
         <v>121</v>
@@ -38669,7 +38669,7 @@
         <v>2390</v>
       </c>
       <c r="E761" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F761" s="0" t="s">
         <v>295</v>
@@ -38707,7 +38707,7 @@
         <v>891</v>
       </c>
       <c r="E762" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F762" s="0" t="s">
         <v>400</v>
@@ -38745,7 +38745,7 @@
         <v>1239</v>
       </c>
       <c r="E763" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F763" s="0" t="s">
         <v>295</v>
@@ -38783,7 +38783,7 @@
         <v>304</v>
       </c>
       <c r="E764" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F764" s="0" t="s">
         <v>161</v>
@@ -38821,7 +38821,7 @@
         <v>810</v>
       </c>
       <c r="E765" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F765" s="0" t="s">
         <v>583</v>
@@ -38859,7 +38859,7 @@
         <v>921</v>
       </c>
       <c r="E766" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F766" s="0" t="s">
         <v>2404</v>
@@ -38897,7 +38897,7 @@
         <v>2410</v>
       </c>
       <c r="E767" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F767" s="0" t="s">
         <v>583</v>
@@ -38935,7 +38935,7 @@
         <v>2412</v>
       </c>
       <c r="E768" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F768" s="0" t="s">
         <v>549</v>
@@ -38973,7 +38973,7 @@
         <v>2417</v>
       </c>
       <c r="E769" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F769" s="0" t="s">
         <v>957</v>
@@ -39011,7 +39011,7 @@
         <v>2380</v>
       </c>
       <c r="E770" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F770" s="0" t="s">
         <v>2422</v>
@@ -39049,7 +39049,7 @@
         <v>2428</v>
       </c>
       <c r="E771" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F771" s="0" t="s">
         <v>97</v>
@@ -39087,7 +39087,7 @@
         <v>2433</v>
       </c>
       <c r="E772" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F772" s="0" t="s">
         <v>97</v>
@@ -39125,7 +39125,7 @@
         <v>2435</v>
       </c>
       <c r="E773" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F773" s="0" t="s">
         <v>97</v>
@@ -39163,7 +39163,7 @@
         <v>773</v>
       </c>
       <c r="E774" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F774" s="0" t="s">
         <v>40</v>
@@ -39201,7 +39201,7 @@
         <v>2442</v>
       </c>
       <c r="E775" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F775" s="0" t="s">
         <v>1075</v>
@@ -39239,7 +39239,7 @@
         <v>48</v>
       </c>
       <c r="E776" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F776" s="0" t="s">
         <v>97</v>
@@ -39277,7 +39277,7 @@
         <v>2446</v>
       </c>
       <c r="E777" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F777" s="0" t="s">
         <v>692</v>
@@ -39315,7 +39315,7 @@
         <v>721</v>
       </c>
       <c r="E778" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F778" s="0" t="s">
         <v>2450</v>
@@ -39353,7 +39353,7 @@
         <v>2114</v>
       </c>
       <c r="E779" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F779" s="0" t="s">
         <v>2454</v>
@@ -39391,7 +39391,7 @@
         <v>2383</v>
       </c>
       <c r="E780" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F780" s="0" t="s">
         <v>150</v>
@@ -39429,7 +39429,7 @@
         <v>2462</v>
       </c>
       <c r="E781" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F781" s="0" t="s">
         <v>1709</v>
@@ -39467,7 +39467,7 @@
         <v>1134</v>
       </c>
       <c r="E782" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F782" s="0" t="s">
         <v>54</v>
@@ -39505,7 +39505,7 @@
         <v>1564</v>
       </c>
       <c r="E783" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F783" s="0" t="s">
         <v>54</v>
@@ -39543,7 +39543,7 @@
         <v>2470</v>
       </c>
       <c r="E784" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F784" s="0" t="s">
         <v>54</v>
@@ -39581,7 +39581,7 @@
         <v>2472</v>
       </c>
       <c r="E785" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F785" s="0" t="s">
         <v>397</v>
@@ -39619,7 +39619,7 @@
         <v>91</v>
       </c>
       <c r="E786" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F786" s="0" t="s">
         <v>1075</v>
@@ -39657,7 +39657,7 @@
         <v>2478</v>
       </c>
       <c r="E787" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F787" s="0" t="s">
         <v>161</v>
@@ -39695,7 +39695,7 @@
         <v>2482</v>
       </c>
       <c r="E788" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F788" s="0" t="s">
         <v>520</v>
@@ -39733,7 +39733,7 @@
         <v>2486</v>
       </c>
       <c r="E789" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F789" s="0" t="s">
         <v>357</v>
@@ -39771,7 +39771,7 @@
         <v>2488</v>
       </c>
       <c r="E790" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F790" s="0" t="s">
         <v>966</v>
@@ -39809,7 +39809,7 @@
         <v>2490</v>
       </c>
       <c r="E791" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F791" s="0" t="s">
         <v>966</v>
@@ -39847,7 +39847,7 @@
         <v>570</v>
       </c>
       <c r="E792" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F792" s="0" t="s">
         <v>1854</v>
@@ -39885,7 +39885,7 @@
         <v>2494</v>
       </c>
       <c r="E793" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F793" s="0" t="s">
         <v>1114</v>
@@ -39923,7 +39923,7 @@
         <v>810</v>
       </c>
       <c r="E794" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F794" s="0" t="s">
         <v>121</v>
@@ -39961,7 +39961,7 @@
         <v>1830</v>
       </c>
       <c r="E795" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F795" s="0" t="s">
         <v>692</v>
@@ -39999,7 +39999,7 @@
         <v>2502</v>
       </c>
       <c r="E796" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F796" s="0" t="s">
         <v>14</v>
@@ -40037,7 +40037,7 @@
         <v>2412</v>
       </c>
       <c r="E797" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F797" s="0" t="s">
         <v>108</v>
@@ -40075,7 +40075,7 @@
         <v>2507</v>
       </c>
       <c r="E798" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F798" s="0" t="s">
         <v>14</v>
@@ -40113,7 +40113,7 @@
         <v>2509</v>
       </c>
       <c r="E799" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F799" s="0" t="s">
         <v>295</v>
@@ -40151,7 +40151,7 @@
         <v>2513</v>
       </c>
       <c r="E800" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F800" s="0" t="s">
         <v>2514</v>
@@ -40189,7 +40189,7 @@
         <v>2516</v>
       </c>
       <c r="E801" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F801" s="0" t="s">
         <v>285</v>
@@ -40227,7 +40227,7 @@
         <v>2517</v>
       </c>
       <c r="E802" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F802" s="0" t="s">
         <v>16</v>
@@ -40265,7 +40265,7 @@
         <v>2523</v>
       </c>
       <c r="E803" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F803" s="0" t="s">
         <v>2524</v>
@@ -40303,7 +40303,7 @@
         <v>2530</v>
       </c>
       <c r="E804" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F804" s="0" t="s">
         <v>370</v>
@@ -40341,7 +40341,7 @@
         <v>1842</v>
       </c>
       <c r="E805" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F805" s="0" t="s">
         <v>14</v>
@@ -40379,7 +40379,7 @@
         <v>668</v>
       </c>
       <c r="E806" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F806" s="0" t="s">
         <v>97</v>
@@ -40417,7 +40417,7 @@
         <v>608</v>
       </c>
       <c r="E807" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F807" s="0" t="s">
         <v>2541</v>
@@ -40455,7 +40455,7 @@
         <v>2543</v>
       </c>
       <c r="E808" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F808" s="0" t="s">
         <v>97</v>
@@ -40493,7 +40493,7 @@
         <v>2545</v>
       </c>
       <c r="E809" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F809" s="0" t="s">
         <v>97</v>
@@ -40531,7 +40531,7 @@
         <v>2548</v>
       </c>
       <c r="E810" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F810" s="0" t="s">
         <v>81</v>
@@ -40569,7 +40569,7 @@
         <v>2551</v>
       </c>
       <c r="E811" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F811" s="0" t="s">
         <v>108</v>
@@ -40607,7 +40607,7 @@
         <v>71</v>
       </c>
       <c r="E812" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F812" s="0" t="s">
         <v>104</v>
@@ -40645,7 +40645,7 @@
         <v>1567</v>
       </c>
       <c r="E813" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F813" s="0" t="s">
         <v>1316</v>
@@ -40683,7 +40683,7 @@
         <v>2559</v>
       </c>
       <c r="E814" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F814" s="0" t="s">
         <v>108</v>
@@ -40721,7 +40721,7 @@
         <v>1331</v>
       </c>
       <c r="E815" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F815" s="0" t="s">
         <v>370</v>
@@ -40759,7 +40759,7 @@
         <v>298</v>
       </c>
       <c r="E816" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F816" s="0" t="s">
         <v>2566</v>
@@ -40797,7 +40797,7 @@
         <v>691</v>
       </c>
       <c r="E817" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F817" s="0" t="s">
         <v>2566</v>
@@ -40835,7 +40835,7 @@
         <v>1478</v>
       </c>
       <c r="E818" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F818" s="0" t="s">
         <v>40</v>
@@ -40873,7 +40873,7 @@
         <v>711</v>
       </c>
       <c r="E819" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F819" s="0" t="s">
         <v>40</v>
@@ -40911,7 +40911,7 @@
         <v>2581</v>
       </c>
       <c r="E820" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F820" s="0" t="s">
         <v>121</v>
@@ -40949,7 +40949,7 @@
         <v>1159</v>
       </c>
       <c r="E821" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F821" s="0" t="s">
         <v>97</v>
@@ -40987,7 +40987,7 @@
         <v>231</v>
       </c>
       <c r="E822" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F822" s="0" t="s">
         <v>370</v>
@@ -41025,7 +41025,7 @@
         <v>2587</v>
       </c>
       <c r="E823" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F823" s="0" t="s">
         <v>864</v>
@@ -41063,7 +41063,7 @@
         <v>926</v>
       </c>
       <c r="E824" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F824" s="0" t="s">
         <v>864</v>
@@ -41101,7 +41101,7 @@
         <v>857</v>
       </c>
       <c r="E825" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F825" s="0" t="s">
         <v>871</v>
@@ -41139,7 +41139,7 @@
         <v>2596</v>
       </c>
       <c r="E826" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F826" s="0" t="s">
         <v>861</v>
@@ -41177,7 +41177,7 @@
         <v>666</v>
       </c>
       <c r="E827" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F827" s="0" t="s">
         <v>861</v>
@@ -41215,7 +41215,7 @@
         <v>217</v>
       </c>
       <c r="E828" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F828" s="0" t="s">
         <v>864</v>
@@ -41253,7 +41253,7 @@
         <v>2601</v>
       </c>
       <c r="E829" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F829" s="0" t="s">
         <v>871</v>
@@ -41291,7 +41291,7 @@
         <v>1518</v>
       </c>
       <c r="E830" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F830" s="0" t="s">
         <v>861</v>
@@ -41329,7 +41329,7 @@
         <v>2606</v>
       </c>
       <c r="E831" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F831" s="0" t="s">
         <v>861</v>
@@ -41367,7 +41367,7 @@
         <v>184</v>
       </c>
       <c r="E832" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F832" s="0" t="s">
         <v>861</v>
@@ -41405,7 +41405,7 @@
         <v>2610</v>
       </c>
       <c r="E833" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F833" s="0" t="s">
         <v>357</v>
@@ -41443,7 +41443,7 @@
         <v>2085</v>
       </c>
       <c r="E834" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F834" s="0" t="s">
         <v>2615</v>
@@ -41481,7 +41481,7 @@
         <v>688</v>
       </c>
       <c r="E835" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F835" s="0" t="s">
         <v>161</v>
@@ -41519,7 +41519,7 @@
         <v>2625</v>
       </c>
       <c r="E836" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F836" s="0" t="s">
         <v>161</v>
@@ -41557,7 +41557,7 @@
         <v>2626</v>
       </c>
       <c r="E837" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F837" s="0" t="s">
         <v>1163</v>
@@ -41595,7 +41595,7 @@
         <v>1323</v>
       </c>
       <c r="E838" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F838" s="0" t="s">
         <v>861</v>
@@ -41633,7 +41633,7 @@
         <v>149</v>
       </c>
       <c r="E839" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F839" s="0" t="s">
         <v>104</v>
@@ -41671,7 +41671,7 @@
         <v>2635</v>
       </c>
       <c r="E840" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F840" s="0" t="s">
         <v>871</v>
@@ -41709,7 +41709,7 @@
         <v>1708</v>
       </c>
       <c r="E841" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F841" s="0" t="s">
         <v>2637</v>
@@ -41747,7 +41747,7 @@
         <v>1498</v>
       </c>
       <c r="E842" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F842" s="0" t="s">
         <v>871</v>
@@ -41785,7 +41785,7 @@
         <v>2640</v>
       </c>
       <c r="E843" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F843" s="0" t="s">
         <v>864</v>
@@ -41823,7 +41823,7 @@
         <v>792</v>
       </c>
       <c r="E844" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F844" s="0" t="s">
         <v>861</v>
@@ -41861,7 +41861,7 @@
         <v>369</v>
       </c>
       <c r="E845" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F845" s="0" t="s">
         <v>104</v>
@@ -41899,7 +41899,7 @@
         <v>2543</v>
       </c>
       <c r="E846" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F846" s="0" t="s">
         <v>161</v>
@@ -41937,7 +41937,7 @@
         <v>171</v>
       </c>
       <c r="E847" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F847" s="0" t="s">
         <v>2650</v>
@@ -41975,7 +41975,7 @@
         <v>2652</v>
       </c>
       <c r="E848" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F848" s="0" t="s">
         <v>2650</v>
@@ -42013,7 +42013,7 @@
         <v>921</v>
       </c>
       <c r="E849" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F849" s="0" t="s">
         <v>161</v>
@@ -42051,7 +42051,7 @@
         <v>469</v>
       </c>
       <c r="E850" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F850" s="0" t="s">
         <v>2656</v>
@@ -42089,7 +42089,7 @@
         <v>68</v>
       </c>
       <c r="E851" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F851" s="0" t="s">
         <v>2658</v>
@@ -42127,7 +42127,7 @@
         <v>1310</v>
       </c>
       <c r="E852" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F852" s="0" t="s">
         <v>2663</v>
@@ -42165,7 +42165,7 @@
         <v>168</v>
       </c>
       <c r="E853" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F853" s="0" t="s">
         <v>161</v>
@@ -42203,7 +42203,7 @@
         <v>1697</v>
       </c>
       <c r="E854" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F854" s="0" t="s">
         <v>2668</v>
@@ -42241,7 +42241,7 @@
         <v>2674</v>
       </c>
       <c r="E855" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F855" s="0" t="s">
         <v>104</v>
@@ -42279,7 +42279,7 @@
         <v>2676</v>
       </c>
       <c r="E856" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F856" s="0" t="s">
         <v>397</v>
@@ -42317,7 +42317,7 @@
         <v>2678</v>
       </c>
       <c r="E857" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F857" s="0" t="s">
         <v>2679</v>
@@ -42355,7 +42355,7 @@
         <v>2681</v>
       </c>
       <c r="E858" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F858" s="0" t="s">
         <v>161</v>
@@ -42393,7 +42393,7 @@
         <v>402</v>
       </c>
       <c r="E859" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F859" s="0" t="s">
         <v>2682</v>
@@ -42431,7 +42431,7 @@
         <v>2687</v>
       </c>
       <c r="E860" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F860" s="0" t="s">
         <v>370</v>
@@ -42469,7 +42469,7 @@
         <v>298</v>
       </c>
       <c r="E861" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F861" s="0" t="s">
         <v>104</v>
@@ -42507,7 +42507,7 @@
         <v>68</v>
       </c>
       <c r="E862" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F862" s="0" t="s">
         <v>97</v>
@@ -42545,7 +42545,7 @@
         <v>2700</v>
       </c>
       <c r="E863" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F863" s="0" t="s">
         <v>104</v>
@@ -42583,7 +42583,7 @@
         <v>2702</v>
       </c>
       <c r="E864" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F864" s="0" t="s">
         <v>40</v>
@@ -42621,7 +42621,7 @@
         <v>2545</v>
       </c>
       <c r="E865" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F865" s="0" t="s">
         <v>97</v>
@@ -42659,7 +42659,7 @@
         <v>2708</v>
       </c>
       <c r="E866" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F866" s="0" t="s">
         <v>81</v>
@@ -42697,7 +42697,7 @@
         <v>2308</v>
       </c>
       <c r="E867" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F867" s="0" t="s">
         <v>969</v>
@@ -42735,7 +42735,7 @@
         <v>1832</v>
       </c>
       <c r="E868" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F868" s="0" t="s">
         <v>966</v>
@@ -42773,7 +42773,7 @@
         <v>1788</v>
       </c>
       <c r="E869" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F869" s="0" t="s">
         <v>357</v>
@@ -42811,7 +42811,7 @@
         <v>2715</v>
       </c>
       <c r="E870" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F870" s="0" t="s">
         <v>966</v>
@@ -42849,7 +42849,7 @@
         <v>1587</v>
       </c>
       <c r="E871" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F871" s="0" t="s">
         <v>54</v>
@@ -42887,7 +42887,7 @@
         <v>773</v>
       </c>
       <c r="E872" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F872" s="0" t="s">
         <v>1432</v>
@@ -42925,7 +42925,7 @@
         <v>2720</v>
       </c>
       <c r="E873" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F873" s="0" t="s">
         <v>54</v>
@@ -42963,7 +42963,7 @@
         <v>2722</v>
       </c>
       <c r="E874" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F874" s="0" t="s">
         <v>2723</v>
@@ -43001,7 +43001,7 @@
         <v>1821</v>
       </c>
       <c r="E875" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F875" s="0" t="s">
         <v>966</v>
@@ -43039,7 +43039,7 @@
         <v>1336</v>
       </c>
       <c r="E876" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F876" s="0" t="s">
         <v>2732</v>
@@ -43077,7 +43077,7 @@
         <v>1310</v>
       </c>
       <c r="E877" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F877" s="0" t="s">
         <v>969</v>
@@ -43115,7 +43115,7 @@
         <v>2736</v>
       </c>
       <c r="E878" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F878" s="0" t="s">
         <v>2732</v>
@@ -43153,7 +43153,7 @@
         <v>2738</v>
       </c>
       <c r="E879" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F879" s="0" t="s">
         <v>121</v>
@@ -43191,7 +43191,7 @@
         <v>149</v>
       </c>
       <c r="E880" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F880" s="0" t="s">
         <v>2732</v>
@@ -43229,7 +43229,7 @@
         <v>1448</v>
       </c>
       <c r="E881" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F881" s="0" t="s">
         <v>2743</v>
@@ -43267,7 +43267,7 @@
         <v>1503</v>
       </c>
       <c r="E882" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F882" s="0" t="s">
         <v>966</v>
@@ -43305,7 +43305,7 @@
         <v>2674</v>
       </c>
       <c r="E883" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F883" s="0" t="s">
         <v>357</v>
@@ -43343,7 +43343,7 @@
         <v>1914</v>
       </c>
       <c r="E884" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F884" s="0" t="s">
         <v>2747</v>
@@ -43381,7 +43381,7 @@
         <v>1839</v>
       </c>
       <c r="E885" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F885" s="0" t="s">
         <v>1715</v>
@@ -43419,7 +43419,7 @@
         <v>249</v>
       </c>
       <c r="E886" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F886" s="0" t="s">
         <v>81</v>
@@ -43457,7 +43457,7 @@
         <v>2757</v>
       </c>
       <c r="E887" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F887" s="0" t="s">
         <v>81</v>
@@ -43495,7 +43495,7 @@
         <v>2759</v>
       </c>
       <c r="E888" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F888" s="0" t="s">
         <v>700</v>
@@ -43533,7 +43533,7 @@
         <v>1719</v>
       </c>
       <c r="E889" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F889" s="0" t="s">
         <v>2761</v>
@@ -43571,7 +43571,7 @@
         <v>149</v>
       </c>
       <c r="E890" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F890" s="0" t="s">
         <v>81</v>
@@ -43609,7 +43609,7 @@
         <v>729</v>
       </c>
       <c r="E891" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F891" s="0" t="s">
         <v>2761</v>
@@ -43647,7 +43647,7 @@
         <v>1928</v>
       </c>
       <c r="E892" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F892" s="0" t="s">
         <v>700</v>
@@ -43685,7 +43685,7 @@
         <v>638</v>
       </c>
       <c r="E893" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F893" s="0" t="s">
         <v>700</v>
@@ -43723,7 +43723,7 @@
         <v>2769</v>
       </c>
       <c r="E894" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F894" s="0" t="s">
         <v>14</v>
@@ -43761,7 +43761,7 @@
         <v>2774</v>
       </c>
       <c r="E895" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F895" s="0" t="s">
         <v>121</v>
@@ -43799,7 +43799,7 @@
         <v>2776</v>
       </c>
       <c r="E896" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F896" s="0" t="s">
         <v>97</v>
@@ -43837,7 +43837,7 @@
         <v>2783</v>
       </c>
       <c r="E897" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F897" s="0" t="s">
         <v>756</v>
@@ -43875,7 +43875,7 @@
         <v>264</v>
       </c>
       <c r="E898" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F898" s="0" t="s">
         <v>1178</v>
@@ -43913,7 +43913,7 @@
         <v>933</v>
       </c>
       <c r="E899" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F899" s="0" t="s">
         <v>756</v>
@@ -43951,7 +43951,7 @@
         <v>2021</v>
       </c>
       <c r="E900" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F900" s="0" t="s">
         <v>756</v>
@@ -43989,7 +43989,7 @@
         <v>684</v>
       </c>
       <c r="E901" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F901" s="0" t="s">
         <v>756</v>
@@ -44027,7 +44027,7 @@
         <v>1043</v>
       </c>
       <c r="E902" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F902" s="0" t="s">
         <v>756</v>
@@ -44065,7 +44065,7 @@
         <v>1255</v>
       </c>
       <c r="E903" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F903" s="0" t="s">
         <v>756</v>
@@ -44103,7 +44103,7 @@
         <v>2308</v>
       </c>
       <c r="E904" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F904" s="0" t="s">
         <v>756</v>
@@ -44141,7 +44141,7 @@
         <v>2799</v>
       </c>
       <c r="E905" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F905" s="0" t="s">
         <v>285</v>
@@ -44179,7 +44179,7 @@
         <v>616</v>
       </c>
       <c r="E906" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F906" s="0" t="s">
         <v>2804</v>
@@ -44217,7 +44217,7 @@
         <v>2783</v>
       </c>
       <c r="E907" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F907" s="0" t="s">
         <v>2810</v>
@@ -44255,7 +44255,7 @@
         <v>666</v>
       </c>
       <c r="E908" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F908" s="0" t="s">
         <v>2814</v>
@@ -44293,7 +44293,7 @@
         <v>975</v>
       </c>
       <c r="E909" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F909" s="0" t="s">
         <v>40</v>
@@ -44331,7 +44331,7 @@
         <v>2507</v>
       </c>
       <c r="E910" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F910" s="0" t="s">
         <v>104</v>
@@ -44369,7 +44369,7 @@
         <v>2380</v>
       </c>
       <c r="E911" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F911" s="0" t="s">
         <v>104</v>
@@ -44407,7 +44407,7 @@
         <v>790</v>
       </c>
       <c r="E912" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F912" s="0" t="s">
         <v>2827</v>
@@ -44445,7 +44445,7 @@
         <v>2832</v>
       </c>
       <c r="E913" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F913" s="0" t="s">
         <v>2833</v>
@@ -44483,7 +44483,7 @@
         <v>2838</v>
       </c>
       <c r="E914" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F914" s="0" t="s">
         <v>2839</v>
@@ -44521,7 +44521,7 @@
         <v>2843</v>
       </c>
       <c r="E915" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F915" s="0" t="s">
         <v>357</v>
@@ -44559,7 +44559,7 @@
         <v>2847</v>
       </c>
       <c r="E916" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F916" s="0" t="s">
         <v>397</v>
@@ -44597,7 +44597,7 @@
         <v>2849</v>
       </c>
       <c r="E917" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F917" s="0" t="s">
         <v>43</v>
@@ -44635,7 +44635,7 @@
         <v>2852</v>
       </c>
       <c r="E918" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F918" s="0" t="s">
         <v>357</v>
@@ -44673,7 +44673,7 @@
         <v>2856</v>
       </c>
       <c r="E919" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F919" s="0" t="s">
         <v>966</v>
@@ -44711,7 +44711,7 @@
         <v>1830</v>
       </c>
       <c r="E920" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F920" s="0" t="s">
         <v>969</v>
@@ -44749,7 +44749,7 @@
         <v>2860</v>
       </c>
       <c r="E921" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F921" s="0" t="s">
         <v>357</v>
@@ -44787,7 +44787,7 @@
         <v>1233</v>
       </c>
       <c r="E922" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F922" s="0" t="s">
         <v>2668</v>
@@ -44825,7 +44825,7 @@
         <v>2864</v>
       </c>
       <c r="E923" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F923" s="0" t="s">
         <v>357</v>
@@ -44863,7 +44863,7 @@
         <v>1255</v>
       </c>
       <c r="E924" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F924" s="0" t="s">
         <v>357</v>
@@ -44901,7 +44901,7 @@
         <v>711</v>
       </c>
       <c r="E925" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F925" s="0" t="s">
         <v>357</v>
@@ -44939,7 +44939,7 @@
         <v>1542</v>
       </c>
       <c r="E926" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F926" s="0" t="s">
         <v>14</v>
@@ -44977,7 +44977,7 @@
         <v>2870</v>
       </c>
       <c r="E927" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F927" s="0" t="s">
         <v>14</v>
@@ -45015,7 +45015,7 @@
         <v>1138</v>
       </c>
       <c r="E928" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F928" s="0" t="s">
         <v>40</v>
@@ -45053,7 +45053,7 @@
         <v>427</v>
       </c>
       <c r="E929" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F929" s="0" t="s">
         <v>40</v>
@@ -45091,7 +45091,7 @@
         <v>641</v>
       </c>
       <c r="E930" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F930" s="0" t="s">
         <v>2874</v>
@@ -45129,7 +45129,7 @@
         <v>2358</v>
       </c>
       <c r="E931" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F931" s="0" t="s">
         <v>40</v>
@@ -45167,7 +45167,7 @@
         <v>2877</v>
       </c>
       <c r="E932" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F932" s="0" t="s">
         <v>14</v>
@@ -45205,7 +45205,7 @@
         <v>2446</v>
       </c>
       <c r="E933" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F933" s="0" t="s">
         <v>40</v>
@@ -45243,7 +45243,7 @@
         <v>790</v>
       </c>
       <c r="E934" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F934" s="0" t="s">
         <v>121</v>
@@ -45281,7 +45281,7 @@
         <v>1969</v>
       </c>
       <c r="E935" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F935" s="0" t="s">
         <v>161</v>
@@ -45319,7 +45319,7 @@
         <v>798</v>
       </c>
       <c r="E936" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F936" s="0" t="s">
         <v>104</v>
@@ -45357,7 +45357,7 @@
         <v>2889</v>
       </c>
       <c r="E937" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F937" s="0" t="s">
         <v>1163</v>
@@ -45395,7 +45395,7 @@
         <v>2894</v>
       </c>
       <c r="E938" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F938" s="0" t="s">
         <v>97</v>
@@ -45433,7 +45433,7 @@
         <v>2190</v>
       </c>
       <c r="E939" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F939" s="0" t="s">
         <v>40</v>
@@ -45471,7 +45471,7 @@
         <v>1351</v>
       </c>
       <c r="E940" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F940" s="0" t="s">
         <v>864</v>
@@ -45509,7 +45509,7 @@
         <v>711</v>
       </c>
       <c r="E941" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F941" s="0" t="s">
         <v>871</v>
@@ -45547,7 +45547,7 @@
         <v>249</v>
       </c>
       <c r="E942" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F942" s="0" t="s">
         <v>2906</v>
@@ -45585,7 +45585,7 @@
         <v>2676</v>
       </c>
       <c r="E943" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F943" s="0" t="s">
         <v>121</v>
@@ -45623,7 +45623,7 @@
         <v>661</v>
       </c>
       <c r="E944" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F944" s="0" t="s">
         <v>121</v>
@@ -45661,7 +45661,7 @@
         <v>581</v>
       </c>
       <c r="E945" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F945" s="0" t="s">
         <v>2919</v>
@@ -45699,7 +45699,7 @@
         <v>2926</v>
       </c>
       <c r="E946" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F946" s="0" t="s">
         <v>2927</v>
@@ -45737,7 +45737,7 @@
         <v>2932</v>
       </c>
       <c r="E947" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F947" s="0" t="s">
         <v>2927</v>
@@ -45775,7 +45775,7 @@
         <v>2933</v>
       </c>
       <c r="E948" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F948" s="0" t="s">
         <v>2927</v>
@@ -45813,7 +45813,7 @@
         <v>328</v>
       </c>
       <c r="E949" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F949" s="0" t="s">
         <v>1346</v>
@@ -45851,7 +45851,7 @@
         <v>2940</v>
       </c>
       <c r="E950" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F950" s="0" t="s">
         <v>397</v>
@@ -45889,7 +45889,7 @@
         <v>25</v>
       </c>
       <c r="E951" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F951" s="0" t="s">
         <v>40</v>
@@ -45927,7 +45927,7 @@
         <v>1772</v>
       </c>
       <c r="E952" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F952" s="0" t="s">
         <v>583</v>
@@ -45965,7 +45965,7 @@
         <v>826</v>
       </c>
       <c r="E953" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F953" s="0" t="s">
         <v>801</v>
@@ -46003,7 +46003,7 @@
         <v>2374</v>
       </c>
       <c r="E954" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F954" s="0" t="s">
         <v>583</v>
@@ -46041,7 +46041,7 @@
         <v>53</v>
       </c>
       <c r="E955" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F955" s="0" t="s">
         <v>43</v>
@@ -46079,7 +46079,7 @@
         <v>527</v>
       </c>
       <c r="E956" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F956" s="0" t="s">
         <v>357</v>
@@ -46117,7 +46117,7 @@
         <v>202</v>
       </c>
       <c r="E957" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F957" s="0" t="s">
         <v>2957</v>
@@ -46155,7 +46155,7 @@
         <v>2963</v>
       </c>
       <c r="E958" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F958" s="0" t="s">
         <v>2957</v>
@@ -46193,7 +46193,7 @@
         <v>442</v>
       </c>
       <c r="E959" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F959" s="0" t="s">
         <v>97</v>
@@ -46231,7 +46231,7 @@
         <v>810</v>
       </c>
       <c r="E960" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F960" s="0" t="s">
         <v>97</v>
@@ -46269,7 +46269,7 @@
         <v>2251</v>
       </c>
       <c r="E961" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F961" s="0" t="s">
         <v>97</v>
@@ -46307,7 +46307,7 @@
         <v>2971</v>
       </c>
       <c r="E962" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F962" s="0" t="s">
         <v>97</v>
@@ -46345,7 +46345,7 @@
         <v>2973</v>
       </c>
       <c r="E963" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F963" s="0" t="s">
         <v>14</v>
@@ -46383,7 +46383,7 @@
         <v>1724</v>
       </c>
       <c r="E964" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F964" s="0" t="s">
         <v>97</v>
@@ -46421,7 +46421,7 @@
         <v>1409</v>
       </c>
       <c r="E965" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F965" s="0" t="s">
         <v>54</v>
@@ -46459,7 +46459,7 @@
         <v>2981</v>
       </c>
       <c r="E966" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F966" s="0" t="s">
         <v>65</v>
@@ -46497,7 +46497,7 @@
         <v>387</v>
       </c>
       <c r="E967" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F967" s="0" t="s">
         <v>65</v>
@@ -46535,7 +46535,7 @@
         <v>2984</v>
       </c>
       <c r="E968" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F968" s="0" t="s">
         <v>43</v>
@@ -46573,7 +46573,7 @@
         <v>800</v>
       </c>
       <c r="E969" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F969" s="0" t="s">
         <v>1973</v>
@@ -46611,7 +46611,7 @@
         <v>1193</v>
       </c>
       <c r="E970" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F970" s="0" t="s">
         <v>43</v>
@@ -46649,7 +46649,7 @@
         <v>348</v>
       </c>
       <c r="E971" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F971" s="0" t="s">
         <v>2987</v>
@@ -46687,7 +46687,7 @@
         <v>2989</v>
       </c>
       <c r="E972" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F972" s="0" t="s">
         <v>54</v>
@@ -46725,7 +46725,7 @@
         <v>2992</v>
       </c>
       <c r="E973" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F973" s="0" t="s">
         <v>54</v>
@@ -46763,7 +46763,7 @@
         <v>387</v>
       </c>
       <c r="E974" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F974" s="0" t="s">
         <v>43</v>
@@ -46801,7 +46801,7 @@
         <v>2995</v>
       </c>
       <c r="E975" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F975" s="0" t="s">
         <v>54</v>
@@ -46839,7 +46839,7 @@
         <v>488</v>
       </c>
       <c r="E976" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F976" s="0" t="s">
         <v>65</v>
@@ -46877,7 +46877,7 @@
         <v>2230</v>
       </c>
       <c r="E977" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F977" s="0" t="s">
         <v>54</v>
@@ -46915,7 +46915,7 @@
         <v>1636</v>
       </c>
       <c r="E978" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F978" s="0" t="s">
         <v>397</v>
@@ -46953,7 +46953,7 @@
         <v>1708</v>
       </c>
       <c r="E979" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F979" s="0" t="s">
         <v>357</v>
@@ -46991,7 +46991,7 @@
         <v>1329</v>
       </c>
       <c r="E980" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F980" s="0" t="s">
         <v>14</v>
@@ -47029,7 +47029,7 @@
         <v>3007</v>
       </c>
       <c r="E981" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F981" s="0" t="s">
         <v>14</v>
@@ -47067,7 +47067,7 @@
         <v>1153</v>
       </c>
       <c r="E982" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F982" s="0" t="s">
         <v>14</v>
@@ -47105,7 +47105,7 @@
         <v>3010</v>
       </c>
       <c r="E983" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F983" s="0" t="s">
         <v>14</v>
@@ -47143,7 +47143,7 @@
         <v>3013</v>
       </c>
       <c r="E984" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F984" s="0" t="s">
         <v>285</v>
@@ -47181,7 +47181,7 @@
         <v>3017</v>
       </c>
       <c r="E985" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F985" s="0" t="s">
         <v>285</v>
@@ -47219,7 +47219,7 @@
         <v>3020</v>
       </c>
       <c r="E986" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F986" s="0" t="s">
         <v>1114</v>
@@ -47257,7 +47257,7 @@
         <v>2319</v>
       </c>
       <c r="E987" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F987" s="0" t="s">
         <v>756</v>
@@ -47295,7 +47295,7 @@
         <v>3026</v>
       </c>
       <c r="E988" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F988" s="0" t="s">
         <v>1114</v>
@@ -47333,7 +47333,7 @@
         <v>570</v>
       </c>
       <c r="E989" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F989" s="0" t="s">
         <v>1114</v>
@@ -47371,7 +47371,7 @@
         <v>1023</v>
       </c>
       <c r="E990" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F990" s="0" t="s">
         <v>1114</v>
@@ -47409,7 +47409,7 @@
         <v>3031</v>
       </c>
       <c r="E991" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F991" s="0" t="s">
         <v>3032</v>
@@ -47447,7 +47447,7 @@
         <v>328</v>
       </c>
       <c r="E992" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F992" s="0" t="s">
         <v>3038</v>
@@ -47485,7 +47485,7 @@
         <v>2894</v>
       </c>
       <c r="E993" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F993" s="0" t="s">
         <v>121</v>
@@ -47523,7 +47523,7 @@
         <v>3043</v>
       </c>
       <c r="E994" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F994" s="0" t="s">
         <v>121</v>
@@ -47561,7 +47561,7 @@
         <v>25</v>
       </c>
       <c r="E995" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F995" s="0" t="s">
         <v>24</v>
@@ -47599,7 +47599,7 @@
         <v>3048</v>
       </c>
       <c r="E996" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F996" s="0" t="s">
         <v>24</v>
@@ -47637,7 +47637,7 @@
         <v>3050</v>
       </c>
       <c r="E997" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F997" s="0" t="s">
         <v>325</v>
@@ -47675,7 +47675,7 @@
         <v>2257</v>
       </c>
       <c r="E998" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F998" s="0" t="s">
         <v>161</v>
@@ -47713,7 +47713,7 @@
         <v>2708</v>
       </c>
       <c r="E999" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F999" s="0" t="s">
         <v>325</v>
@@ -47751,7 +47751,7 @@
         <v>3053</v>
       </c>
       <c r="E1000" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1000" s="0" t="s">
         <v>325</v>
@@ -47789,7 +47789,7 @@
         <v>3055</v>
       </c>
       <c r="E1001" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1001" s="0" t="s">
         <v>3056</v>
@@ -47827,7 +47827,7 @@
         <v>3061</v>
       </c>
       <c r="E1002" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1002" s="0" t="s">
         <v>3062</v>
@@ -47865,7 +47865,7 @@
         <v>826</v>
       </c>
       <c r="E1003" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1003" s="0" t="s">
         <v>1226</v>
@@ -47903,7 +47903,7 @@
         <v>2205</v>
       </c>
       <c r="E1004" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1004" s="0" t="s">
         <v>3067</v>
@@ -47941,7 +47941,7 @@
         <v>2860</v>
       </c>
       <c r="E1005" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1005" s="0" t="s">
         <v>121</v>
@@ -47979,7 +47979,7 @@
         <v>857</v>
       </c>
       <c r="E1006" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1006" s="0" t="s">
         <v>121</v>
@@ -48017,7 +48017,7 @@
         <v>71</v>
       </c>
       <c r="E1007" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1007" s="0" t="s">
         <v>121</v>
@@ -48055,7 +48055,7 @@
         <v>217</v>
       </c>
       <c r="E1008" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1008" s="0" t="s">
         <v>121</v>
@@ -48093,7 +48093,7 @@
         <v>2513</v>
       </c>
       <c r="E1009" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1009" s="0" t="s">
         <v>1163</v>
@@ -48131,7 +48131,7 @@
         <v>1323</v>
       </c>
       <c r="E1010" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1010" s="0" t="s">
         <v>121</v>
@@ -48169,7 +48169,7 @@
         <v>3079</v>
       </c>
       <c r="E1011" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1011" s="0" t="s">
         <v>81</v>
@@ -48207,7 +48207,7 @@
         <v>2601</v>
       </c>
       <c r="E1012" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1012" s="0" t="s">
         <v>3083</v>
@@ -48245,7 +48245,7 @@
         <v>1767</v>
       </c>
       <c r="E1013" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1013" s="0" t="s">
         <v>1187</v>
@@ -48283,7 +48283,7 @@
         <v>3090</v>
       </c>
       <c r="E1014" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1014" s="0" t="s">
         <v>3091</v>
@@ -48321,7 +48321,7 @@
         <v>3097</v>
       </c>
       <c r="E1015" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1015" s="0" t="s">
         <v>65</v>
@@ -48359,7 +48359,7 @@
         <v>3102</v>
       </c>
       <c r="E1016" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1016" s="0" t="s">
         <v>3103</v>
@@ -48397,7 +48397,7 @@
         <v>2606</v>
       </c>
       <c r="E1017" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1017" s="0" t="s">
         <v>3105</v>
@@ -48435,7 +48435,7 @@
         <v>993</v>
       </c>
       <c r="E1018" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1018" s="0" t="s">
         <v>370</v>
@@ -48473,7 +48473,7 @@
         <v>2317</v>
       </c>
       <c r="E1019" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1019" s="0" t="s">
         <v>370</v>
@@ -48511,7 +48511,7 @@
         <v>3112</v>
       </c>
       <c r="E1020" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1020" s="0" t="s">
         <v>14</v>
@@ -48549,7 +48549,7 @@
         <v>3114</v>
       </c>
       <c r="E1021" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1021" s="0" t="s">
         <v>1223</v>
@@ -48587,7 +48587,7 @@
         <v>3116</v>
       </c>
       <c r="E1022" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1022" s="0" t="s">
         <v>14</v>
@@ -48625,7 +48625,7 @@
         <v>1437</v>
       </c>
       <c r="E1023" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1023" s="0" t="s">
         <v>104</v>
@@ -48663,7 +48663,7 @@
         <v>160</v>
       </c>
       <c r="E1024" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1024" s="0" t="s">
         <v>161</v>
@@ -48701,7 +48701,7 @@
         <v>1009</v>
       </c>
       <c r="E1025" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1025" s="0" t="s">
         <v>121</v>
@@ -48739,7 +48739,7 @@
         <v>3126</v>
       </c>
       <c r="E1026" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1026" s="0" t="s">
         <v>54</v>
@@ -48777,7 +48777,7 @@
         <v>480</v>
       </c>
       <c r="E1027" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1027" s="0" t="s">
         <v>54</v>
@@ -48815,7 +48815,7 @@
         <v>826</v>
       </c>
       <c r="E1028" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1028" s="0" t="s">
         <v>3130</v>
@@ -48853,7 +48853,7 @@
         <v>3132</v>
       </c>
       <c r="E1029" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1029" s="0" t="s">
         <v>3133</v>
@@ -48891,7 +48891,7 @@
         <v>187</v>
       </c>
       <c r="E1030" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1030" s="0" t="s">
         <v>54</v>
@@ -48929,7 +48929,7 @@
         <v>1014</v>
       </c>
       <c r="E1031" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1031" s="0" t="s">
         <v>65</v>
@@ -48967,7 +48967,7 @@
         <v>351</v>
       </c>
       <c r="E1032" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1032" s="0" t="s">
         <v>3130</v>
@@ -49005,7 +49005,7 @@
         <v>1029</v>
       </c>
       <c r="E1033" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1033" s="0" t="s">
         <v>3130</v>
@@ -49043,7 +49043,7 @@
         <v>1842</v>
       </c>
       <c r="E1034" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1034" s="0" t="s">
         <v>43</v>
@@ -49081,7 +49081,7 @@
         <v>3139</v>
       </c>
       <c r="E1035" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1035" s="0" t="s">
         <v>510</v>
@@ -49119,7 +49119,7 @@
         <v>381</v>
       </c>
       <c r="E1036" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1036" s="0" t="s">
         <v>3145</v>
@@ -49157,7 +49157,7 @@
         <v>1674</v>
       </c>
       <c r="E1037" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1037" s="0" t="s">
         <v>357</v>
@@ -49195,7 +49195,7 @@
         <v>469</v>
       </c>
       <c r="E1038" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1038" s="0" t="s">
         <v>43</v>
@@ -49233,7 +49233,7 @@
         <v>2355</v>
       </c>
       <c r="E1039" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1039" s="0" t="s">
         <v>65</v>
@@ -49271,7 +49271,7 @@
         <v>1888</v>
       </c>
       <c r="E1040" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1040" s="0" t="s">
         <v>65</v>
@@ -49309,7 +49309,7 @@
         <v>1962</v>
       </c>
       <c r="E1041" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1041" s="0" t="s">
         <v>1753</v>
@@ -49347,7 +49347,7 @@
         <v>3165</v>
       </c>
       <c r="E1042" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1042" s="0" t="s">
         <v>54</v>
@@ -49385,7 +49385,7 @@
         <v>3026</v>
       </c>
       <c r="E1043" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1043" s="0" t="s">
         <v>1753</v>
@@ -49423,7 +49423,7 @@
         <v>3167</v>
       </c>
       <c r="E1044" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1044" s="0" t="s">
         <v>1753</v>
@@ -49461,7 +49461,7 @@
         <v>2230</v>
       </c>
       <c r="E1045" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1045" s="0" t="s">
         <v>827</v>
@@ -49499,7 +49499,7 @@
         <v>430</v>
       </c>
       <c r="E1046" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1046" s="0" t="s">
         <v>756</v>
@@ -49537,7 +49537,7 @@
         <v>187</v>
       </c>
       <c r="E1047" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1047" s="0" t="s">
         <v>827</v>
@@ -49575,7 +49575,7 @@
         <v>3043</v>
       </c>
       <c r="E1048" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1048" s="0" t="s">
         <v>370</v>
@@ -49613,7 +49613,7 @@
         <v>3177</v>
       </c>
       <c r="E1049" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1049" s="0" t="s">
         <v>801</v>
@@ -49651,7 +49651,7 @@
         <v>3181</v>
       </c>
       <c r="E1050" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1050" s="0" t="s">
         <v>801</v>
@@ -49689,7 +49689,7 @@
         <v>234</v>
       </c>
       <c r="E1051" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1051" s="0" t="s">
         <v>929</v>
@@ -49727,7 +49727,7 @@
         <v>2130</v>
       </c>
       <c r="E1052" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1052" s="0" t="s">
         <v>929</v>
@@ -49765,7 +49765,7 @@
         <v>553</v>
       </c>
       <c r="E1053" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1053" s="0" t="s">
         <v>929</v>
@@ -49803,7 +49803,7 @@
         <v>632</v>
       </c>
       <c r="E1054" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1054" s="0" t="s">
         <v>586</v>
@@ -49841,7 +49841,7 @@
         <v>115</v>
       </c>
       <c r="E1055" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1055" s="0" t="s">
         <v>1231</v>
@@ -49879,7 +49879,7 @@
         <v>3167</v>
       </c>
       <c r="E1056" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1056" s="0" t="s">
         <v>1231</v>
@@ -49917,7 +49917,7 @@
         <v>3193</v>
       </c>
       <c r="E1057" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1057" s="0" t="s">
         <v>1231</v>
@@ -49955,7 +49955,7 @@
         <v>1925</v>
       </c>
       <c r="E1058" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1058" s="0" t="s">
         <v>1226</v>
@@ -49993,7 +49993,7 @@
         <v>1520</v>
       </c>
       <c r="E1059" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1059" s="0" t="s">
         <v>1231</v>
@@ -50031,7 +50031,7 @@
         <v>539</v>
       </c>
       <c r="E1060" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1060" s="0" t="s">
         <v>1226</v>
@@ -50069,7 +50069,7 @@
         <v>3199</v>
       </c>
       <c r="E1061" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1061" s="0" t="s">
         <v>1226</v>
@@ -50107,7 +50107,7 @@
         <v>3200</v>
       </c>
       <c r="E1062" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1062" s="0" t="s">
         <v>3201</v>
@@ -50145,7 +50145,7 @@
         <v>1773</v>
       </c>
       <c r="E1063" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1063" s="0" t="s">
         <v>1226</v>
@@ -50183,7 +50183,7 @@
         <v>3205</v>
       </c>
       <c r="E1064" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1064" s="0" t="s">
         <v>1226</v>
@@ -50221,7 +50221,7 @@
         <v>3007</v>
       </c>
       <c r="E1065" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1065" s="0" t="s">
         <v>1231</v>
@@ -50259,7 +50259,7 @@
         <v>1395</v>
       </c>
       <c r="E1066" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1066" s="0" t="s">
         <v>3208</v>
@@ -50297,7 +50297,7 @@
         <v>3210</v>
       </c>
       <c r="E1067" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1067" s="0" t="s">
         <v>1226</v>
